--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DC56FF0A-1480-4F7E-874D-9227F60C4708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522C4B2-1B43-44FB-82EA-2A0104D67216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -165,12 +165,108 @@
   <si>
     <t>Saisir Résultat</t>
   </si>
+  <si>
+    <t>Code fin phase de poule</t>
+  </si>
+  <si>
+    <t>Test du code de fin phase de poule</t>
+  </si>
+  <si>
+    <t>Code Génération phase finale</t>
+  </si>
+  <si>
+    <t>Permettre la modification d'un résultat</t>
+  </si>
+  <si>
+    <t>Jour 7</t>
+  </si>
+  <si>
+    <t>Gérer le tournoi</t>
+  </si>
+  <si>
+    <t>Créer plusieurs poules</t>
+  </si>
+  <si>
+    <t>Modifier les résultats des matches</t>
+  </si>
+  <si>
+    <t>Test Code Génération phase finale</t>
+  </si>
+  <si>
+    <t>IHM Génération phase finale</t>
+  </si>
+  <si>
+    <t>IHM Permettre la modification d'un resultat</t>
+  </si>
+  <si>
+    <t>Test Code Permettre la modification d'un resultat</t>
+  </si>
+  <si>
+    <t>IHM</t>
+  </si>
+  <si>
+    <t>Entrée du résultat d'un matche</t>
+  </si>
+  <si>
+    <t>Gérer la sélection de l'arbitre pour le tournoi</t>
+  </si>
+  <si>
+    <t>Gérer la création d'un arbitre</t>
+  </si>
+  <si>
+    <t>Consulter l'historique de points</t>
+  </si>
+  <si>
+    <t>IHM Page de consultation des points</t>
+  </si>
+  <si>
+    <t>Calcul des points</t>
+  </si>
+  <si>
+    <t>Calcul du World Rank</t>
+  </si>
+  <si>
+    <t>Affichage du World Rank</t>
+  </si>
+  <si>
+    <t>IHM Page de sélection d'arbitre</t>
+  </si>
+  <si>
+    <t>IHM Page de saisie des résultats</t>
+  </si>
+  <si>
+    <t>Clôturer Tournoi</t>
+  </si>
+  <si>
+    <t>Créer le système login/mdp</t>
+  </si>
+  <si>
+    <t>Gestion de la connexion et des droits</t>
+  </si>
+  <si>
+    <t>Gérer Clôture d'un Tournoi</t>
+  </si>
+  <si>
+    <t>Modifier Equipe</t>
+  </si>
+  <si>
+    <t>Supprimer Equipe</t>
+  </si>
+  <si>
+    <t>IHM Page de modification d'une Equipe</t>
+  </si>
+  <si>
+    <t>Modifier la DB</t>
+  </si>
+  <si>
+    <t>Gérer le suppression d'une équipe</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,13 +283,6 @@
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="28"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -299,6 +388,17 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -319,6 +419,17 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -616,72 +727,39 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -690,103 +768,145 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1766,6 +1886,972 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 3'!$C$16:$H$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB47-481E-AD79-A7EACDA23841}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1601168015"/>
+        <c:axId val="1591981215"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1601168015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1591981215"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1591981215"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1601168015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>Burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 4'!$C$14:$I$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7BEF-4EA0-AA32-7984A55A15DC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1595317103"/>
+        <c:axId val="533529936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1595317103"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="533529936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="533529936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1595317103"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-FR"/>
+              <a:t>burndown chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1500" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+                <a:schemeClr val="accent1"/>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="fr-FR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="ctr"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1">
+                          <a:lumMod val="60000"/>
+                          <a:lumOff val="40000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>'Sprint 5'!$C$12:$J$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FB38-41B3-87DA-E5BAF3F55336}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="ctr"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:dropLines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1"/>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="lt1">
+                      <a:alpha val="0"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:dropLines>
+        <c:smooth val="0"/>
+        <c:axId val="1657013279"/>
+        <c:axId val="1659943407"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1657013279"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="30" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1659943407"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1659943407"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1657013279"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="accent1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1886,6 +2972,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
   <cs:axisTitle>
@@ -3425,6 +4631,1545 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="238">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" spc="30" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <cs:styleClr val="auto"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:pattFill prst="ltUpDiag">
+        <a:fgClr>
+          <a:schemeClr val="phClr"/>
+        </a:fgClr>
+        <a:bgClr>
+          <a:schemeClr val="lt1"/>
+        </a:bgClr>
+      </a:pattFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:outerShdw dist="25400" dir="2700000" algn="tl" rotWithShape="0">
+          <a:schemeClr val="phClr"/>
+        </a:outerShdw>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="14"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="35000"/>
+          <a:lumOff val="65000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="lt1">
+                <a:alpha val="0"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="25400">
+          <a:schemeClr val="lt1"/>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="10000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+            <a:tint val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="1500" b="1" kern="1200" cap="all" spc="100" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="0"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="60000"/>
+            <a:lumOff val="40000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3432,13 +6177,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>506730</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>453390</xdr:rowOff>
+      <xdr:rowOff>415290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>784860</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3511,16 +6256,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>701040</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>422910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2476500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3528,6 +6273,129 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F89A9C3C-FA23-86A3-3599-ACA2B9149584}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>339090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72214B7F-4BCF-2E7C-36E7-8492F0CA2A2F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>422910</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8933492D-1B67-EE24-9530-4F3BE84F411B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>175260</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>213360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D215F01-2B89-6875-4BAB-D31EB7D2A5EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3847,8 +6715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0874910-9649-44E6-9169-8BB7E21D05AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3861,77 +6729,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="37">
         <v>4</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="37">
         <v>4</v>
       </c>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3945,11 +6813,11 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="43"/>
+      <c r="G5" s="40"/>
+      <c r="H5" s="40"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="44"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -3963,38 +6831,38 @@
       <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="42">
         <v>4</v>
       </c>
-      <c r="H6" s="45">
+      <c r="H6" s="42">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="51">
+      <c r="C7" s="58">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="17">
         <f xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="17">
         <f t="shared" ref="E7:H7" si="0" xml:space="preserve"> D7-SUM(E4:E6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="52">
+      <c r="G7" s="59">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="21">
+      <c r="H7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4034,234 +6902,234 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="16"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="27">
         <v>32</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="27">
         <v>16</v>
       </c>
-      <c r="E4" s="30">
+      <c r="E4" s="27">
         <v>8</v>
       </c>
-      <c r="F4" s="30">
+      <c r="F4" s="27">
         <v>8</v>
       </c>
-      <c r="G4" s="31"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
+      <c r="A5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="7">
         <v>16</v>
       </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7">
         <v>8</v>
       </c>
-      <c r="G5" s="33">
+      <c r="G5" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="33"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="30"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="7">
         <v>8</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="33">
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="7">
         <v>16</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12">
+      <c r="D8" s="7"/>
+      <c r="E8" s="7">
         <v>10</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="33"/>
+      <c r="G8" s="30"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="7">
         <v>8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <v>8</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="33"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="30"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12">
+      <c r="D10" s="7"/>
+      <c r="E10" s="7">
         <v>1</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="33"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="30"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12">
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="33"/>
+      <c r="G11" s="30"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="31" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="33">
         <v>1</v>
       </c>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="37">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="22">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="23">
         <f xml:space="preserve"> C13-SUM(D4:D12)</f>
         <v>59</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="23">
         <f t="shared" ref="E13:G13" si="0" xml:space="preserve"> D13-SUM(E4:E12)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="26">
+      <c r="F13" s="23">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="24">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -4286,92 +7154,94 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="39" t="s">
+      <c r="B4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="43">
         <v>16</v>
       </c>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="54"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="39" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -4385,10 +7255,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="55"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -4402,10 +7272,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="55"/>
+      <c r="I6" s="45"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="39" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -4419,10 +7289,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="55"/>
+      <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -4436,10 +7306,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="55"/>
+      <c r="I8" s="45"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="39" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -4453,10 +7323,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="55"/>
+      <c r="I9" s="45"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="39" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -4470,54 +7340,54 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="55"/>
+      <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
+      <c r="A11" s="41" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="46">
         <v>16</v>
       </c>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="56"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="16">
         <f xml:space="preserve"> SUM(C4:C11)</f>
         <v>81</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="17">
         <f xml:space="preserve"> C12-SUM(D4:D11)</f>
         <v>81</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="17">
         <f xml:space="preserve"> D12-SUM(E4:E11)</f>
         <v>81</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="17">
         <f xml:space="preserve"> E12-SUM(F4:F11)</f>
         <v>81</v>
       </c>
-      <c r="G12" s="20">
+      <c r="G12" s="17">
         <f xml:space="preserve"> F12-SUM(G4:G11)</f>
         <v>81</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="17">
         <f xml:space="preserve"> G12-SUM(H4:H11)</f>
         <v>81</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="18">
         <f xml:space="preserve"> H12-SUM(I4:I11)</f>
         <v>81</v>
       </c>
@@ -4544,130 +7414,290 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646C8983-27BA-4886-93D7-587DCE04A2DD}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="48" t="s">
         <v>40</v>
       </c>
+      <c r="B4" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="43">
+        <v>1</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="50" t="s">
         <v>40</v>
       </c>
+      <c r="B5" s="51" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="45"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="50" t="s">
         <v>40</v>
       </c>
+      <c r="B6" s="51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="45"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="50" t="s">
         <v>39</v>
       </c>
+      <c r="B7" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="45"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="50" t="s">
         <v>39</v>
       </c>
+      <c r="B8" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="45"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="50" t="s">
         <v>39</v>
       </c>
+      <c r="B9" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="4">
+        <v>4</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="45"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="50" t="s">
         <v>39</v>
       </c>
+      <c r="B10" s="51" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="45"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="45"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="4">
+        <v>8</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="45"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="51" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="4">
+        <v>16</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="45"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="51" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="4">
+        <v>8</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="45"/>
+    </row>
+    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="52" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="46">
+        <v>8</v>
+      </c>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
+    </row>
+    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="1">
+      <c r="C16" s="16">
         <f xml:space="preserve"> SUM(C4:C15)</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
+        <v>75</v>
+      </c>
+      <c r="D16" s="17">
         <f xml:space="preserve"> C16-SUM(D4:D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" ref="E16:H16" si="0" xml:space="preserve"> D16-SUM(E4:E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="E16" s="17">
+        <f xml:space="preserve"> D16-SUM(E4:E15)</f>
+        <v>75</v>
+      </c>
+      <c r="F16" s="17">
+        <f xml:space="preserve"> E16-SUM(F4:F15)</f>
+        <v>75</v>
+      </c>
+      <c r="G16" s="17">
+        <f xml:space="preserve"> F16-SUM(G4:G15)</f>
+        <v>75</v>
+      </c>
+      <c r="H16" s="18">
+        <f xml:space="preserve"> G16-SUM(H4:H15)</f>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4683,205 +7713,580 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="57"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="43">
+        <v>4</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="44"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="4">
+        <v>8</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="45"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="45"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="4">
+        <v>8</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="45"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="4">
+        <v>4</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="45"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="45"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="45"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>68</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="4">
+        <v>16</v>
+      </c>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="45"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="45"/>
+    </row>
+    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="46">
+        <v>16</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
+    </row>
+    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <f xml:space="preserve"> SUM(C4:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <f xml:space="preserve"> C13-SUM(D4:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:G13" si="0" xml:space="preserve"> D13-SUM(E4:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="C14" s="16">
+        <f xml:space="preserve"> SUM(C4:C13)</f>
+        <v>67</v>
+      </c>
+      <c r="D14" s="17">
+        <f xml:space="preserve"> C14-SUM(D4:D13)</f>
+        <v>67</v>
+      </c>
+      <c r="E14" s="17">
+        <f t="shared" ref="E14:G14" si="0" xml:space="preserve"> D14-SUM(E4:E13)</f>
+        <v>67</v>
+      </c>
+      <c r="F14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+        <v>67</v>
+      </c>
+      <c r="G14" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="H14" s="17">
+        <f t="shared" ref="H14" si="1" xml:space="preserve"> G14-SUM(H4:H13)</f>
+        <v>67</v>
+      </c>
+      <c r="I14" s="18">
+        <f t="shared" ref="I14" si="2" xml:space="preserve"> H14-SUM(I4:I13)</f>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="8">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="9"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>9</v>
       </c>
+      <c r="H2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="46" t="s">
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="43">
+        <v>16</v>
+      </c>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="44"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="45"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4">
+        <v>16</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="45"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="45"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="4">
+        <v>8</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="45"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="4">
+        <v>16</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="45"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B10" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="4">
+        <v>8</v>
+      </c>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="45"/>
+    </row>
+    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="46">
+        <v>1</v>
+      </c>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="47"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <f xml:space="preserve"> SUM(C4:C12)</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <f xml:space="preserve"> C13-SUM(D4:D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:G13" si="0" xml:space="preserve"> D13-SUM(E4:E12)</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="C12" s="58">
+        <f xml:space="preserve"> SUM(C4:C11)</f>
+        <v>67</v>
+      </c>
+      <c r="D12" s="17">
+        <f xml:space="preserve"> C12-SUM(D4:D11)</f>
+        <v>67</v>
+      </c>
+      <c r="E12" s="17">
+        <f xml:space="preserve"> D12-SUM(E4:E11)</f>
+        <v>67</v>
+      </c>
+      <c r="F12" s="17">
+        <f xml:space="preserve"> E12-SUM(F4:F11)</f>
+        <v>67</v>
+      </c>
+      <c r="G12" s="17">
+        <f xml:space="preserve"> F12-SUM(G4:G11)</f>
+        <v>67</v>
+      </c>
+      <c r="H12" s="17">
+        <f t="shared" ref="H12:J12" si="0" xml:space="preserve"> G12-SUM(H4:H11)</f>
+        <v>67</v>
+      </c>
+      <c r="I12" s="17">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
+        <v>67</v>
+      </c>
+      <c r="J12" s="18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="9">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C522C4B2-1B43-44FB-82EA-2A0104D67216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C40139E-72D4-42FD-A621-C8E6F048430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -753,22 +753,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -784,9 +769,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -891,6 +873,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -900,13 +897,16 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -6715,7 +6715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0874910-9649-44E6-9169-8BB7E21D05AE}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
@@ -6729,77 +6729,77 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="37">
+      <c r="C4" s="31">
         <v>4</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="31">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="33" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -6813,11 +6813,11 @@
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="41"/>
+      <c r="A6" s="35"/>
       <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
@@ -6831,38 +6831,38 @@
       <c r="F6" s="6">
         <v>4</v>
       </c>
-      <c r="G6" s="42">
+      <c r="G6" s="36">
         <v>4</v>
       </c>
-      <c r="H6" s="42">
+      <c r="H6" s="36">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="58">
+      <c r="C7" s="49">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="12">
         <f xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="12">
         <f t="shared" ref="E7:H7" si="0" xml:space="preserve"> D7-SUM(E4:E6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="59">
+      <c r="G7" s="50">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6888,8 +6888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE23BD-E1F0-4C30-A68B-F0A2423218E9}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6902,75 +6902,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="11"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="27">
+      <c r="C4" s="21">
         <v>32</v>
       </c>
-      <c r="D4" s="27">
+      <c r="D4" s="21">
         <v>16</v>
       </c>
-      <c r="E4" s="27">
+      <c r="E4" s="21">
         <v>8</v>
       </c>
-      <c r="F4" s="27">
+      <c r="F4" s="21">
         <v>8</v>
       </c>
-      <c r="G4" s="28"/>
+      <c r="G4" s="22"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="23" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -6984,12 +6984,12 @@
       <c r="F5" s="7">
         <v>8</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -7003,10 +7003,10 @@
       </c>
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="30"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -7018,12 +7018,12 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="30">
+      <c r="G7" s="24">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -7039,10 +7039,10 @@
       <c r="F8" s="7">
         <v>6</v>
       </c>
-      <c r="G8" s="30"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="29" t="s">
+      <c r="A9" s="23" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -7056,10 +7056,10 @@
       </c>
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
-      <c r="G9" s="30"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="23" t="s">
         <v>18</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -7073,10 +7073,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="30"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="23" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -7090,46 +7090,46 @@
       <c r="F11" s="7">
         <v>1</v>
       </c>
-      <c r="G11" s="30"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="27">
         <v>1</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="34">
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="16">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="17">
         <f xml:space="preserve"> C13-SUM(D4:D12)</f>
         <v>59</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <f t="shared" ref="E13:G13" si="0" xml:space="preserve"> D13-SUM(E4:E12)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="17">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7154,7 +7154,7 @@
   <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7167,81 +7167,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
+      <c r="C3" s="53"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>16</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="33" t="s">
         <v>18</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -7255,10 +7255,10 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -7272,10 +7272,10 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="33" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -7289,10 +7289,10 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="45"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -7306,10 +7306,10 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="45"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
+      <c r="A9" s="33" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -7323,10 +7323,10 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="33" t="s">
         <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -7340,55 +7340,55 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="35" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="40">
         <v>16</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="47"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="41"/>
     </row>
     <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="16">
+      <c r="C12" s="11">
         <f xml:space="preserve"> SUM(C4:C11)</f>
         <v>81</v>
       </c>
-      <c r="D12" s="17">
-        <f xml:space="preserve"> C12-SUM(D4:D11)</f>
+      <c r="D12" s="12">
+        <f t="shared" ref="D12:I12" si="0" xml:space="preserve"> C12-SUM(D4:D11)</f>
         <v>81</v>
       </c>
-      <c r="E12" s="17">
-        <f xml:space="preserve"> D12-SUM(E4:E11)</f>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="F12" s="17">
-        <f xml:space="preserve"> E12-SUM(F4:F11)</f>
+      <c r="F12" s="12">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="G12" s="17">
-        <f xml:space="preserve"> F12-SUM(G4:G11)</f>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="H12" s="17">
-        <f xml:space="preserve"> G12-SUM(H4:H11)</f>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="I12" s="18">
-        <f xml:space="preserve"> H12-SUM(I4:I11)</f>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
         <v>81</v>
       </c>
     </row>
@@ -7428,78 +7428,78 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="52" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>1</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>63</v>
       </c>
       <c r="C5" s="4">
@@ -7509,13 +7509,13 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="45"/>
+      <c r="H5" s="39"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="4">
@@ -7525,13 +7525,13 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
-      <c r="H6" s="45"/>
+      <c r="H6" s="39"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="4">
@@ -7541,13 +7541,13 @@
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="45"/>
+      <c r="H7" s="39"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>62</v>
       </c>
       <c r="C8" s="4">
@@ -7557,13 +7557,13 @@
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
-      <c r="H8" s="45"/>
+      <c r="H8" s="39"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>55</v>
       </c>
       <c r="C9" s="4">
@@ -7573,13 +7573,13 @@
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="45"/>
+      <c r="H9" s="39"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>56</v>
       </c>
       <c r="C10" s="4">
@@ -7589,13 +7589,13 @@
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
-      <c r="H10" s="45"/>
+      <c r="H10" s="39"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="4">
@@ -7605,13 +7605,13 @@
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="45"/>
+      <c r="H11" s="39"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="4">
@@ -7621,13 +7621,13 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="45"/>
+      <c r="H12" s="39"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="45" t="s">
         <v>59</v>
       </c>
       <c r="C13" s="4">
@@ -7637,13 +7637,13 @@
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="45"/>
+      <c r="H13" s="39"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="50" t="s">
+      <c r="A14" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="51" t="s">
+      <c r="B14" s="45" t="s">
         <v>60</v>
       </c>
       <c r="C14" s="4">
@@ -7653,49 +7653,49 @@
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
-      <c r="H14" s="45"/>
+      <c r="H14" s="39"/>
     </row>
     <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="48" t="s">
         <v>61</v>
       </c>
-      <c r="C15" s="46">
+      <c r="C15" s="40">
         <v>8</v>
       </c>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="11">
         <f xml:space="preserve"> SUM(C4:C15)</f>
         <v>75</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="12">
         <f xml:space="preserve"> C16-SUM(D4:D15)</f>
         <v>75</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="12">
         <f xml:space="preserve"> D16-SUM(E4:E15)</f>
         <v>75</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="12">
         <f xml:space="preserve"> E16-SUM(F4:F15)</f>
         <v>75</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="12">
         <f xml:space="preserve"> F16-SUM(G4:G15)</f>
         <v>75</v>
       </c>
-      <c r="H16" s="18">
+      <c r="H16" s="13">
         <f xml:space="preserve"> G16-SUM(H4:H15)</f>
         <v>75</v>
       </c>
@@ -7735,84 +7735,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>4</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="38"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>66</v>
       </c>
       <c r="C5" s="4">
@@ -7823,13 +7823,13 @@
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
-      <c r="I5" s="45"/>
+      <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="4">
@@ -7840,13 +7840,13 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="45"/>
+      <c r="I6" s="39"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="4">
@@ -7857,13 +7857,13 @@
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
-      <c r="I7" s="45"/>
+      <c r="I7" s="39"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="44" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="4">
@@ -7874,13 +7874,13 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
-      <c r="I8" s="45"/>
+      <c r="I8" s="39"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="4">
@@ -7891,13 +7891,13 @@
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="45"/>
+      <c r="I9" s="39"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>70</v>
       </c>
       <c r="C10" s="4">
@@ -7908,13 +7908,13 @@
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
-      <c r="I10" s="45"/>
+      <c r="I10" s="39"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="B11" s="51" t="s">
+      <c r="B11" s="45" t="s">
         <v>71</v>
       </c>
       <c r="C11" s="4">
@@ -7925,13 +7925,13 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
-      <c r="I11" s="45"/>
+      <c r="I11" s="39"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="45" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="4">
@@ -7942,54 +7942,54 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
-      <c r="I12" s="45"/>
+      <c r="I12" s="39"/>
     </row>
     <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="48" t="s">
         <v>72</v>
       </c>
-      <c r="C13" s="46">
+      <c r="C13" s="40">
         <v>16</v>
       </c>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="46"/>
-      <c r="I13" s="47"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="41"/>
     </row>
     <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="11">
         <f xml:space="preserve"> SUM(C4:C13)</f>
         <v>67</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="12">
         <f xml:space="preserve"> C14-SUM(D4:D13)</f>
         <v>67</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="12">
         <f t="shared" ref="E14:G14" si="0" xml:space="preserve"> D14-SUM(E4:E13)</f>
         <v>67</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G14" s="12">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="H14" s="17">
+      <c r="H14" s="12">
         <f t="shared" ref="H14" si="1" xml:space="preserve"> G14-SUM(H4:H13)</f>
         <v>67</v>
       </c>
-      <c r="I14" s="18">
+      <c r="I14" s="13">
         <f t="shared" ref="I14" si="2" xml:space="preserve"> H14-SUM(I4:I13)</f>
         <v>67</v>
       </c>
@@ -8030,90 +8030,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="57"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="52" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
+      <c r="J3" s="60"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="48" t="s">
+      <c r="A4" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="43">
+      <c r="C4" s="37">
         <v>16</v>
       </c>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="H4" s="43"/>
-      <c r="I4" s="43"/>
-      <c r="J4" s="44"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="48" t="s">
+      <c r="A5" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>42</v>
       </c>
       <c r="C5" s="4">
@@ -8125,13 +8125,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-      <c r="J5" s="45"/>
+      <c r="J5" s="39"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>43</v>
       </c>
       <c r="C6" s="4">
@@ -8143,13 +8143,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-      <c r="J6" s="45"/>
+      <c r="J6" s="39"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="45" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="4">
@@ -8161,13 +8161,13 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
-      <c r="J7" s="45"/>
+      <c r="J7" s="39"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="45" t="s">
         <v>50</v>
       </c>
       <c r="C8" s="4">
@@ -8179,13 +8179,13 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="45"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>44</v>
       </c>
       <c r="C9" s="4">
@@ -8197,13 +8197,13 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="45"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="45" t="s">
         <v>51</v>
       </c>
       <c r="C10" s="4">
@@ -8215,59 +8215,59 @@
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="45"/>
+      <c r="J10" s="39"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="47" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="46">
+      <c r="C11" s="40">
         <v>1</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="47"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
+      <c r="J11" s="41"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="58">
+      <c r="C12" s="49">
         <f xml:space="preserve"> SUM(C4:C11)</f>
         <v>67</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="12">
         <f xml:space="preserve"> C12-SUM(D4:D11)</f>
         <v>67</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="12">
         <f xml:space="preserve"> D12-SUM(E4:E11)</f>
         <v>67</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="12">
         <f xml:space="preserve"> E12-SUM(F4:F11)</f>
         <v>67</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="12">
         <f xml:space="preserve"> F12-SUM(G4:G11)</f>
         <v>67</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="12">
         <f t="shared" ref="H12:J12" si="0" xml:space="preserve"> G12-SUM(H4:H11)</f>
         <v>67</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="12">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="13">
         <f t="shared" si="0"/>
         <v>67</v>
       </c>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C40139E-72D4-42FD-A621-C8E6F048430A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A2B07-8F47-471C-ABEB-59BB538B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
@@ -6889,7 +6889,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002A2B07-8F47-471C-ABEB-59BB538B80C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93DEB3-E112-4355-96A8-B550E745A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="2" r:id="rId6"/>
+    <sheet name="Feuil1" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -136,19 +137,7 @@
     <t>Gérer l'ajout des informations dans la DB</t>
   </si>
   <si>
-    <t>IHM Page de sélection d'une équipe</t>
-  </si>
-  <si>
-    <t>Gérer la sélection des équipes pour un tournoi</t>
-  </si>
-  <si>
     <t>IHM Page de saisie d'une équipe</t>
-  </si>
-  <si>
-    <t>Nouvelle Saison</t>
-  </si>
-  <si>
-    <t>Faire la requête des informations à garder</t>
   </si>
   <si>
     <t>Burn Down Chart Sprint 3</t>
@@ -261,6 +250,24 @@
   <si>
     <t>Gérer le suppression d'une équipe</t>
   </si>
+  <si>
+    <t xml:space="preserve">User technique </t>
+  </si>
+  <si>
+    <t>Gestion de la DAO</t>
+  </si>
+  <si>
+    <t>Javadoc DAO</t>
+  </si>
+  <si>
+    <t>User technique</t>
+  </si>
+  <si>
+    <t>Reste à faire</t>
+  </si>
+  <si>
+    <t>Gestion de la DAO (suite)</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +308,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -314,8 +321,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="31">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -358,37 +371,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -701,9 +683,128 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -711,23 +812,112 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,185 +925,316 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1710,30 +2031,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 2'!$C$12:$I$12</c:f>
+              <c:f>'Sprint 2'!$C$7:$I$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>81</c:v>
+                  <c:v>88</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>81</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>81</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>81</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1792,7 +2113,9 @@
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1818,6 +2141,7 @@
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
@@ -2032,27 +2356,27 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 3'!$C$16:$H$16</c:f>
+              <c:f>'Sprint 3'!$C$8:$H$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>75</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>75</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>75</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>75</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>75</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2356,25 +2680,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2678,28 +3002,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>67</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6215,16 +6539,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>205740</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>281940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>156210</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>312420</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6256,16 +6580,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>144780</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>220980</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>422910</xdr:rowOff>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6297,16 +6621,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>339090</xdr:rowOff>
+      <xdr:rowOff>438150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6338,16 +6662,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>403860</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>739140</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>422910</xdr:rowOff>
+      <xdr:rowOff>392430</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>548640</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6417,9 +6741,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -6457,7 +6781,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -6563,7 +6887,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -6705,7 +7029,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6716,7 +7040,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6729,140 +7053,140 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="31">
+      <c r="C4" s="75">
         <v>4</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="79">
         <v>4</v>
       </c>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="76">
         <v>1</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="80">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="35"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="71"/>
+      <c r="B6" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="77">
         <v>16</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6">
+      <c r="D6" s="19"/>
+      <c r="E6" s="81">
         <v>4</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="81">
         <v>4</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="81">
         <v>4</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="82">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="26">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="13">
         <f xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="13">
         <f t="shared" ref="E7:H7" si="0" xml:space="preserve"> D7-SUM(E4:E6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="78">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -6886,10 +7210,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BE23BD-E1F0-4C30-A68B-F0A2423218E9}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6898,251 +7222,303 @@
     <col min="2" max="2" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="8" max="8" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="H2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="C3" s="30"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="92">
         <v>32</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="86">
         <v>16</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E4" s="15">
         <v>8</v>
       </c>
-      <c r="F4" s="21">
+      <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="G4" s="54"/>
+      <c r="H4" s="62">
+        <f>C4-SUM(D4:G4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="84" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="93">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7">
+      <c r="D5" s="87"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="55">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="H5" s="63">
+        <f t="shared" ref="H5:H12" si="0">C5-SUM(D5:G5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="93">
         <v>1</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="87">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="24"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="93">
         <v>8</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="24">
+      <c r="D7" s="87"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="55">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="H7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="93">
         <v>16</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7">
+      <c r="D8" s="87"/>
+      <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="7">
+      <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="G8" s="55"/>
+      <c r="H8" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="93">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="87">
         <v>8</v>
       </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="93">
         <v>1</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7">
+      <c r="D10" s="87"/>
+      <c r="E10" s="4">
         <v>1</v>
       </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="F10" s="4"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="90" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="93">
         <v>1</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7">
+      <c r="D11" s="87"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="25" t="s">
+      <c r="G11" s="55"/>
+      <c r="H11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="27">
+      <c r="C12" s="94">
         <v>1</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="28">
+      <c r="D12" s="88"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="57">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="15" t="s">
+      <c r="H12" s="65">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="26">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="8">
         <f xml:space="preserve"> C13-SUM(D4:D12)</f>
         <v>59</v>
       </c>
-      <c r="E13" s="17">
-        <f t="shared" ref="E13:G13" si="0" xml:space="preserve"> D13-SUM(E4:E12)</f>
+      <c r="E13" s="8">
+        <f t="shared" ref="E13:H13" si="1" xml:space="preserve"> D13-SUM(E4:E12)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="17">
-        <f t="shared" si="0"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G13" s="18">
-        <f t="shared" si="0"/>
+      <c r="G13" s="27">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="H13" s="10">
+        <f xml:space="preserve"> G13</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:G1"/>
+  <mergeCells count="7">
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
   </mergeCells>
+  <conditionalFormatting sqref="H4:H12">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7151,10 +7527,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCACC08C-18E9-40A4-8059-59784AD5C510}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7166,237 +7542,196 @@
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="15" t="s">
+      <c r="J2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="53"/>
-      <c r="G3" s="53"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="37">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="51">
         <v>16</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D4" s="66">
+        <v>4</v>
+      </c>
+      <c r="E4" s="20">
+        <v>4</v>
+      </c>
+      <c r="F4" s="20">
+        <v>4</v>
+      </c>
+      <c r="G4" s="20">
+        <v>4</v>
+      </c>
+      <c r="H4" s="20"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="62">
+        <f t="shared" ref="J4:J5" si="0">C4-SUM(D4:I4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="70" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="4">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="C5" s="52">
         <v>8</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="D5" s="67"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
+        <v>2</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2</v>
+      </c>
+      <c r="H5" s="3">
+        <v>4</v>
+      </c>
+      <c r="I5" s="42"/>
+      <c r="J5" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="71" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="53">
+        <v>64</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35">
+        <v>8</v>
+      </c>
+      <c r="G6" s="35">
+        <v>8</v>
+      </c>
+      <c r="H6" s="35">
+        <v>8</v>
+      </c>
+      <c r="I6" s="50">
+        <v>8</v>
+      </c>
+      <c r="J6" s="65">
+        <f>C6-SUM(D6:I6)</f>
         <v>32</v>
       </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="33" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="4">
-        <v>8</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4">
-        <v>1</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="35" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="40">
-        <v>16</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="41"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="14" t="s">
+    </row>
+    <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="11">
-        <f xml:space="preserve"> SUM(C4:C11)</f>
-        <v>81</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" ref="D12:I12" si="0" xml:space="preserve"> C12-SUM(D4:D11)</f>
-        <v>81</v>
-      </c>
-      <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="F12" s="12">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="G12" s="12">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="H12" s="12">
-        <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="I12" s="13">
-        <f t="shared" si="0"/>
-        <v>81</v>
+      <c r="C7" s="26">
+        <f xml:space="preserve"> SUM(C4:C6)</f>
+        <v>88</v>
+      </c>
+      <c r="D7" s="8">
+        <f xml:space="preserve"> C7-SUM(D4:D6)</f>
+        <v>84</v>
+      </c>
+      <c r="E7" s="8">
+        <f xml:space="preserve"> D7-SUM(E4:E6)</f>
+        <v>80</v>
+      </c>
+      <c r="F7" s="8">
+        <f xml:space="preserve"> E7-SUM(F4:F6)</f>
+        <v>66</v>
+      </c>
+      <c r="G7" s="8">
+        <f xml:space="preserve"> F7-SUM(G4:G6)</f>
+        <v>52</v>
+      </c>
+      <c r="H7" s="8">
+        <f xml:space="preserve"> G7-SUM(H4:H6)</f>
+        <v>40</v>
+      </c>
+      <c r="I7" s="27">
+        <f xml:space="preserve"> H7-SUM(I4:I6)</f>
+        <v>32</v>
+      </c>
+      <c r="J7" s="10">
+        <f xml:space="preserve"> I7</f>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -7404,6 +7739,11 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="J4:J6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7412,10 +7752,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{646C8983-27BA-4886-93D7-587DCE04A2DD}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7427,281 +7767,196 @@
     <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="I2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="37">
-        <v>1</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="38"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="20">
+        <v>32</v>
+      </c>
+      <c r="D4" s="43">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="39"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="4">
+      <c r="E4" s="43">
+        <v>8</v>
+      </c>
+      <c r="F4" s="43">
+        <v>8</v>
+      </c>
+      <c r="G4" s="43">
+        <v>8</v>
+      </c>
+      <c r="H4" s="44"/>
+      <c r="I4" s="62">
+        <f>C4-SUM(D4:H4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="45"/>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="46">
+        <v>8</v>
+      </c>
+      <c r="I5" s="63">
+        <f t="shared" ref="I5:I7" si="0">C5-SUM(D5:H5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="48" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="45">
+        <v>8</v>
+      </c>
+      <c r="D6" s="45">
         <v>4</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="39"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="39"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="4">
+      <c r="E6" s="45">
+        <v>4</v>
+      </c>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="59" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="47">
         <v>8</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="39"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="4">
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47">
         <v>4</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="39"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="45" t="s">
+      <c r="G7" s="47">
+        <v>4</v>
+      </c>
+      <c r="H7" s="61"/>
+      <c r="I7" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="12">
+        <f xml:space="preserve"> SUM(C3:C7)</f>
         <v>56</v>
       </c>
-      <c r="C10" s="4">
+      <c r="D8" s="13">
+        <f xml:space="preserve"> C8-SUM(D4:D7)</f>
+        <v>44</v>
+      </c>
+      <c r="E8" s="13">
+        <f xml:space="preserve"> D8-SUM(E4:E7)</f>
+        <v>32</v>
+      </c>
+      <c r="F8" s="13">
+        <f xml:space="preserve"> E8-SUM(F4:F7)</f>
+        <v>20</v>
+      </c>
+      <c r="G8" s="13">
+        <f xml:space="preserve"> F8-SUM(G4:G7)</f>
         <v>8</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="39"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="4">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="39"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="4">
-        <v>8</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="39"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="4">
-        <v>16</v>
-      </c>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="39"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="4">
-        <v>8</v>
-      </c>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="39"/>
-    </row>
-    <row r="15" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="40">
-        <v>8</v>
-      </c>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="41"/>
-    </row>
-    <row r="16" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11">
-        <f xml:space="preserve"> SUM(C4:C15)</f>
-        <v>75</v>
-      </c>
-      <c r="D16" s="12">
-        <f xml:space="preserve"> C16-SUM(D4:D15)</f>
-        <v>75</v>
-      </c>
-      <c r="E16" s="12">
-        <f xml:space="preserve"> D16-SUM(E4:E15)</f>
-        <v>75</v>
-      </c>
-      <c r="F16" s="12">
-        <f xml:space="preserve"> E16-SUM(F4:F15)</f>
-        <v>75</v>
-      </c>
-      <c r="G16" s="12">
-        <f xml:space="preserve"> F16-SUM(G4:G15)</f>
-        <v>75</v>
-      </c>
-      <c r="H16" s="13">
-        <f xml:space="preserve"> G16-SUM(H4:H15)</f>
-        <v>75</v>
+      <c r="H8" s="14">
+        <f xml:space="preserve"> G8-SUM(H4:H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="14">
+        <f xml:space="preserve"> H8</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="C2:C3"/>
@@ -7711,6 +7966,11 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="I4:I7">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7719,10 +7979,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
-  <dimension ref="A1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7734,271 +7994,261 @@
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="29" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="J2" s="29" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="37">
-        <v>4</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="38"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="4">
-        <v>8</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="39"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="4">
-        <v>1</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="39"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C7" s="4">
-        <v>8</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="39"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="4">
-        <v>4</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="39"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="4">
-        <v>1</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="39"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="39"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>71</v>
-      </c>
-      <c r="C11" s="4">
-        <v>16</v>
-      </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="39"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="4">
-        <v>1</v>
-      </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="39"/>
-    </row>
-    <row r="13" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="40">
-        <v>16</v>
-      </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="41"/>
-    </row>
-    <row r="14" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="14" t="s">
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="62">
+        <f>C4-SUM(D4:I4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="38"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="63">
+        <f t="shared" ref="J5:J13" si="0">C5-SUM(D5:I5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="38"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="38"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="38"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="38"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="38"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="38"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="38"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="63">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="39"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="35"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="64">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="7">
         <f xml:space="preserve"> SUM(C4:C13)</f>
-        <v>67</v>
-      </c>
-      <c r="D14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="8">
         <f xml:space="preserve"> C14-SUM(D4:D13)</f>
-        <v>67</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" ref="E14:G14" si="0" xml:space="preserve"> D14-SUM(E4:E13)</f>
-        <v>67</v>
-      </c>
-      <c r="F14" s="12">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="G14" s="12">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="H14" s="12">
-        <f t="shared" ref="H14" si="1" xml:space="preserve"> G14-SUM(H4:H13)</f>
-        <v>67</v>
-      </c>
-      <c r="I14" s="13">
-        <f t="shared" ref="I14" si="2" xml:space="preserve"> H14-SUM(I4:I13)</f>
-        <v>67</v>
+        <v>0</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" ref="E14:G14" si="1" xml:space="preserve"> D14-SUM(E4:E13)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="8">
+        <f t="shared" ref="H14" si="2" xml:space="preserve"> G14-SUM(H4:H13)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
+        <f t="shared" ref="I14" si="3" xml:space="preserve"> H14-SUM(I4:I13)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f xml:space="preserve"> I14</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="A1:J1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
-    <mergeCell ref="A1:I1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -8006,6 +8256,11 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="J4:J13">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8016,8 +8271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8030,246 +8285,198 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="56"/>
+      <c r="A1" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="52" t="s">
+      <c r="F2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="52" t="s">
+      <c r="I2" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="52" t="s">
-        <v>45</v>
+      <c r="J2" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="60"/>
-    </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="37">
-        <v>16</v>
-      </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="37"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4">
-        <v>1</v>
-      </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4">
-        <v>16</v>
-      </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="39"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="4">
-        <v>1</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="39"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4">
-        <v>8</v>
-      </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="39"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="4">
-        <v>16</v>
-      </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="39"/>
+      <c r="A9" s="38"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C10" s="4">
-        <v>8</v>
-      </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="39"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="44" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" s="40">
-        <v>1</v>
-      </c>
-      <c r="D11" s="40"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="40"/>
-      <c r="J11" s="41"/>
+      <c r="A11" s="39"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="51" t="s">
+      <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="40">
         <f xml:space="preserve"> SUM(C4:C11)</f>
-        <v>67</v>
-      </c>
-      <c r="D12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="13">
         <f xml:space="preserve"> C12-SUM(D4:D11)</f>
-        <v>67</v>
-      </c>
-      <c r="E12" s="12">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
         <f xml:space="preserve"> D12-SUM(E4:E11)</f>
-        <v>67</v>
-      </c>
-      <c r="F12" s="12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
         <f xml:space="preserve"> E12-SUM(F4:F11)</f>
-        <v>67</v>
-      </c>
-      <c r="G12" s="12">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <f xml:space="preserve"> F12-SUM(G4:G11)</f>
-        <v>67</v>
-      </c>
-      <c r="H12" s="12">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
         <f t="shared" ref="H12:J12" si="0" xml:space="preserve"> G12-SUM(H4:H11)</f>
-        <v>67</v>
-      </c>
-      <c r="I12" s="12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
         <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -8289,4 +8496,354 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
+  <dimension ref="C1:E30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C1" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C2" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C3" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C5" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C6" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C8" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C9" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C10" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C11" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C12" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C16" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>54</v>
+      </c>
+      <c r="E17" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C24" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="E24" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E26" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E28" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C30" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="3">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE93DEB3-E112-4355-96A8-B550E745A6A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5269CE93-FA6B-4AF4-A058-2726CDE9D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Sprint 3" sheetId="4" r:id="rId4"/>
     <sheet name="Sprint 4" sheetId="5" r:id="rId5"/>
     <sheet name="Sprint 5" sheetId="2" r:id="rId6"/>
-    <sheet name="Feuil1" sheetId="7" r:id="rId7"/>
+    <sheet name="Liste des taches" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -917,7 +917,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1003,24 +1003,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1045,25 +1027,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1093,14 +1060,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1200,6 +1164,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7053,16 +7035,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7071,22 +7053,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7097,24 +7079,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="75">
+      <c r="C4" s="63">
         <v>4</v>
       </c>
-      <c r="D4" s="79">
+      <c r="D4" s="67">
         <v>4</v>
       </c>
       <c r="E4" s="16"/>
@@ -7123,16 +7105,16 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="76">
+      <c r="C5" s="64">
         <v>1</v>
       </c>
-      <c r="D5" s="80">
+      <c r="D5" s="68">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -7141,24 +7123,24 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71"/>
-      <c r="B6" s="74" t="s">
+      <c r="A6" s="59"/>
+      <c r="B6" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="65">
         <v>16</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="81">
+      <c r="E6" s="69">
         <v>4</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="69">
         <v>4</v>
       </c>
-      <c r="G6" s="81">
+      <c r="G6" s="69">
         <v>4</v>
       </c>
-      <c r="H6" s="82">
+      <c r="H6" s="70">
         <v>4</v>
       </c>
     </row>
@@ -7182,7 +7164,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="78">
+      <c r="G7" s="66">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7227,16 +7209,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7245,22 +7227,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7271,24 +7253,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="34"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="84"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="83" t="s">
+      <c r="A4" s="71" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="92">
+      <c r="C4" s="80">
         <v>32</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="74">
         <v>16</v>
       </c>
       <c r="E4" s="15">
@@ -7297,180 +7279,180 @@
       <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="G4" s="54"/>
-      <c r="H4" s="62">
+      <c r="G4" s="43"/>
+      <c r="H4" s="50">
         <f>C4-SUM(D4:G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="84" t="s">
+      <c r="A5" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="90" t="s">
+      <c r="B5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="93">
+      <c r="C5" s="81">
         <v>16</v>
       </c>
-      <c r="D5" s="87"/>
+      <c r="D5" s="75"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="55">
+      <c r="G5" s="44">
         <v>8</v>
       </c>
-      <c r="H5" s="63">
+      <c r="H5" s="51">
         <f t="shared" ref="H5:H12" si="0">C5-SUM(D5:G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="84" t="s">
+      <c r="A6" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="90" t="s">
+      <c r="B6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="93">
+      <c r="C6" s="81">
         <v>1</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="75">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="63">
+      <c r="G6" s="44"/>
+      <c r="H6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="84" t="s">
+      <c r="A7" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="93">
+      <c r="C7" s="81">
         <v>8</v>
       </c>
-      <c r="D7" s="87"/>
+      <c r="D7" s="75"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="55">
+      <c r="G7" s="44">
         <v>8</v>
       </c>
-      <c r="H7" s="63">
+      <c r="H7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="84" t="s">
+      <c r="A8" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="90" t="s">
+      <c r="B8" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="81">
         <v>16</v>
       </c>
-      <c r="D8" s="87"/>
+      <c r="D8" s="75"/>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="55"/>
-      <c r="H8" s="63">
+      <c r="G8" s="44"/>
+      <c r="H8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="84" t="s">
+      <c r="A9" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="90" t="s">
+      <c r="B9" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="93">
+      <c r="C9" s="81">
         <v>8</v>
       </c>
-      <c r="D9" s="87">
+      <c r="D9" s="75">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="63">
+      <c r="G9" s="44"/>
+      <c r="H9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="84" t="s">
+      <c r="A10" s="72" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="90" t="s">
+      <c r="B10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="93">
+      <c r="C10" s="81">
         <v>1</v>
       </c>
-      <c r="D10" s="87"/>
+      <c r="D10" s="75"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="63">
+      <c r="G10" s="44"/>
+      <c r="H10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="84" t="s">
+      <c r="A11" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="90" t="s">
+      <c r="B11" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="93">
+      <c r="C11" s="81">
         <v>1</v>
       </c>
-      <c r="D11" s="87"/>
+      <c r="D11" s="75"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="55"/>
-      <c r="H11" s="63">
+      <c r="G11" s="44"/>
+      <c r="H11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="91" t="s">
+      <c r="B12" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="82">
         <v>1</v>
       </c>
-      <c r="D12" s="88"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="57">
+      <c r="D12" s="76"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46">
         <v>1</v>
       </c>
-      <c r="H12" s="65">
+      <c r="H12" s="53">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7488,7 +7470,7 @@
         <v>59</v>
       </c>
       <c r="E13" s="8">
-        <f t="shared" ref="E13:H13" si="1" xml:space="preserve"> D13-SUM(E4:E12)</f>
+        <f t="shared" ref="E13:G13" si="1" xml:space="preserve"> D13-SUM(E4:E12)</f>
         <v>40</v>
       </c>
       <c r="F13" s="8">
@@ -7543,18 +7525,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7563,28 +7545,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="83" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7595,26 +7577,26 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="69" t="s">
+      <c r="A4" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="51">
+      <c r="C4" s="40">
         <v>16</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="54">
         <v>4</v>
       </c>
       <c r="E4" s="20">
@@ -7627,23 +7609,23 @@
         <v>4</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="62">
+      <c r="I4" s="35"/>
+      <c r="J4" s="50">
         <f t="shared" ref="J4:J5" si="0">C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="52">
+      <c r="C5" s="41">
         <v>8</v>
       </c>
-      <c r="D5" s="67"/>
+      <c r="D5" s="55"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2</v>
@@ -7654,37 +7636,37 @@
       <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="42"/>
-      <c r="J5" s="63">
+      <c r="I5" s="36"/>
+      <c r="J5" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="71" t="s">
+      <c r="A6" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="42">
         <v>64</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35">
+      <c r="D6" s="56"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29">
         <v>8</v>
       </c>
-      <c r="G6" s="35">
+      <c r="G6" s="29">
         <v>8</v>
       </c>
-      <c r="H6" s="35">
+      <c r="H6" s="29">
         <v>8</v>
       </c>
-      <c r="I6" s="50">
+      <c r="I6" s="39">
         <v>8</v>
       </c>
-      <c r="J6" s="65">
+      <c r="J6" s="53">
         <f>C6-SUM(D6:I6)</f>
         <v>32</v>
       </c>
@@ -7698,27 +7680,27 @@
         <v>88</v>
       </c>
       <c r="D7" s="8">
-        <f xml:space="preserve"> C7-SUM(D4:D6)</f>
+        <f t="shared" ref="D7:I7" si="1" xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>84</v>
       </c>
       <c r="E7" s="8">
-        <f xml:space="preserve"> D7-SUM(E4:E6)</f>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="F7" s="8">
-        <f xml:space="preserve"> E7-SUM(F4:F6)</f>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="G7" s="8">
-        <f xml:space="preserve"> F7-SUM(G4:G6)</f>
+        <f t="shared" si="1"/>
         <v>52</v>
       </c>
       <c r="H7" s="8">
-        <f xml:space="preserve"> G7-SUM(H4:H6)</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="I7" s="27">
-        <f xml:space="preserve"> H7-SUM(I4:I6)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="J7" s="10">
@@ -7768,16 +7750,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="87"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7786,25 +7768,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="83" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7815,38 +7797,38 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="58" t="s">
+      <c r="B4" s="47" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="20">
         <v>32</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D4" s="20">
         <v>8</v>
       </c>
-      <c r="E4" s="43">
+      <c r="E4" s="20">
         <v>8</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F4" s="20">
         <v>8</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="20">
         <v>8</v>
       </c>
-      <c r="H4" s="44"/>
-      <c r="I4" s="62">
+      <c r="H4" s="35"/>
+      <c r="I4" s="50">
         <f>C4-SUM(D4:H4)</f>
         <v>0</v>
       </c>
@@ -7861,62 +7843,62 @@
       <c r="C5" s="3">
         <v>8</v>
       </c>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="46">
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="36">
         <v>8</v>
       </c>
-      <c r="I5" s="63">
+      <c r="I5" s="51">
         <f t="shared" ref="I5:I7" si="0">C5-SUM(D5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="3">
         <v>8</v>
       </c>
-      <c r="D6" s="45">
+      <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="3">
         <v>4</v>
       </c>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="63">
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="60" t="s">
+      <c r="B7" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="47">
+      <c r="C7" s="29">
         <v>8</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47">
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29">
         <v>4</v>
       </c>
-      <c r="G7" s="47">
+      <c r="G7" s="29">
         <v>4</v>
       </c>
-      <c r="H7" s="61"/>
-      <c r="I7" s="64">
+      <c r="H7" s="39"/>
+      <c r="I7" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7981,7 +7963,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
   <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -7995,18 +7977,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8015,28 +7997,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="83" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8047,17 +8029,17 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -8065,14 +8047,14 @@
       <c r="F4" s="20"/>
       <c r="G4" s="20"/>
       <c r="H4" s="20"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="62">
+      <c r="I4" s="35"/>
+      <c r="J4" s="50">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8080,14 +8062,14 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="63">
+      <c r="I5" s="36"/>
+      <c r="J5" s="51">
         <f t="shared" ref="J5:J13" si="0">C5-SUM(D5:I5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8095,14 +8077,14 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="63">
+      <c r="I6" s="36"/>
+      <c r="J6" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8110,14 +8092,14 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="63">
+      <c r="I7" s="36"/>
+      <c r="J7" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8125,14 +8107,14 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="63">
+      <c r="I8" s="36"/>
+      <c r="J8" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8140,14 +8122,14 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="63">
+      <c r="I9" s="36"/>
+      <c r="J9" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8155,14 +8137,14 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="63">
+      <c r="I10" s="36"/>
+      <c r="J10" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="38"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -8170,14 +8152,14 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="63">
+      <c r="I11" s="36"/>
+      <c r="J11" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="38"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -8185,23 +8167,23 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="63">
+      <c r="I12" s="36"/>
+      <c r="J12" s="51">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="39"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="64">
+      <c r="A13" s="33"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8271,7 +8253,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8285,18 +8267,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="85" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="I1" s="86"/>
+      <c r="J1" s="87"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8305,28 +8287,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="29" t="s">
+      <c r="J2" s="83" t="s">
         <v>41</v>
       </c>
     </row>
@@ -8337,17 +8319,17 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="37"/>
+      <c r="A4" s="31"/>
       <c r="B4" s="20"/>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -8359,7 +8341,7 @@
       <c r="J4" s="21"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="38"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -8371,7 +8353,7 @@
       <c r="J5" s="22"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -8383,7 +8365,7 @@
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="38"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -8395,7 +8377,7 @@
       <c r="J7" s="22"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="38"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -8407,7 +8389,7 @@
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="38"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -8419,7 +8401,7 @@
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="38"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -8431,22 +8413,22 @@
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="39"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="36"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="30"/>
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="34">
         <f xml:space="preserve"> SUM(C4:C11)</f>
         <v>0</v>
       </c>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5269CE93-FA6B-4AF4-A058-2726CDE9D4F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C708D-63EF-44FC-8AD3-745FBC194C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -268,12 +268,27 @@
   <si>
     <t>Gestion de la DAO (suite)</t>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Extension :</t>
+  </si>
+  <si>
+    <t>CSV</t>
+  </si>
+  <si>
+    <t>Importer un fichier excel avec un format précis</t>
+  </si>
+  <si>
+    <t>Principal :</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +322,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -328,7 +351,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="44">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -913,11 +936,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1183,6 +1230,34 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2657,30 +2732,30 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 4'!$C$14:$I$14</c:f>
+              <c:f>'Sprint 4'!$C$19:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6652,7 +6727,7 @@
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7961,16 +8036,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="1"/>
@@ -8023,56 +8098,80 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
       <c r="J3" s="84"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="35"/>
+      <c r="A4" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="90">
+        <v>4</v>
+      </c>
+      <c r="D4" s="90">
+        <v>4</v>
+      </c>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="50">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+      <c r="A5" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="3">
+        <v>8</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="36"/>
       <c r="J5" s="51">
-        <f t="shared" ref="J5:J13" si="0">C5-SUM(D5:I5)</f>
+        <f t="shared" ref="J5:J18" si="0">C5-SUM(D5:I5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="A6" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -8084,11 +8183,19 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
+      <c r="A7" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="3">
+        <v>8</v>
+      </c>
       <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3">
+        <v>8</v>
+      </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -8099,12 +8206,22 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="25" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="3">
+        <v>16</v>
+      </c>
       <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="3">
+        <v>8</v>
+      </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="36"/>
@@ -8114,10 +8231,18 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
+      <c r="A9" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
@@ -8129,14 +8254,30 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="A10" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" s="3">
+        <v>16</v>
+      </c>
+      <c r="D10" s="3">
+        <v>8</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
+        <v>2</v>
+      </c>
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>2</v>
+      </c>
       <c r="I10" s="36"/>
       <c r="J10" s="51">
         <f t="shared" si="0"/>
@@ -8144,85 +8285,211 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="32"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
+      <c r="A11" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="3">
+        <v>16</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="36"/>
+      <c r="I11" s="36">
+        <v>8</v>
+      </c>
       <c r="J11" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="32"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
+      <c r="A12" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="36"/>
+      <c r="I12" s="36">
+        <v>4</v>
+      </c>
       <c r="J12" s="51">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="33"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="52">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="95">
+        <v>1</v>
+      </c>
+      <c r="E13" s="95"/>
+      <c r="F13" s="95"/>
+      <c r="G13" s="95"/>
+      <c r="H13" s="95"/>
+      <c r="I13" s="96"/>
+      <c r="J13" s="97"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="95">
+        <v>8</v>
+      </c>
+      <c r="G14" s="95"/>
+      <c r="H14" s="95"/>
+      <c r="I14" s="96"/>
+      <c r="J14" s="97"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95">
+        <v>4</v>
+      </c>
+      <c r="H15" s="95"/>
+      <c r="I15" s="96"/>
+      <c r="J15" s="97"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3">
+        <v>8</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="95"/>
+      <c r="G16" s="95">
+        <v>8</v>
+      </c>
+      <c r="H16" s="95"/>
+      <c r="I16" s="96"/>
+      <c r="J16" s="97"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="3">
+        <v>16</v>
+      </c>
+      <c r="D17" s="95"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="95"/>
+      <c r="G17" s="95"/>
+      <c r="H17" s="95">
+        <v>8</v>
+      </c>
+      <c r="I17" s="96">
+        <v>8</v>
+      </c>
+      <c r="J17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="93">
+        <v>1</v>
+      </c>
+      <c r="D18" s="93">
+        <v>1</v>
+      </c>
+      <c r="E18" s="93"/>
+      <c r="F18" s="93"/>
+      <c r="G18" s="93"/>
+      <c r="H18" s="93"/>
+      <c r="I18" s="94"/>
+      <c r="J18" s="52">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="10" t="s">
+    <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7">
-        <f xml:space="preserve"> SUM(C4:C13)</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
-        <f xml:space="preserve"> C14-SUM(D4:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" ref="E14:G14" si="1" xml:space="preserve"> D14-SUM(E4:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="8">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="8">
-        <f t="shared" ref="H14" si="2" xml:space="preserve"> G14-SUM(H4:H13)</f>
-        <v>0</v>
-      </c>
-      <c r="I14" s="9">
-        <f t="shared" ref="I14" si="3" xml:space="preserve"> H14-SUM(I4:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
-        <f xml:space="preserve"> I14</f>
-        <v>0</v>
+      <c r="C19" s="7">
+        <f xml:space="preserve"> SUM(C4:C18)</f>
+        <v>116</v>
+      </c>
+      <c r="D19" s="8">
+        <f xml:space="preserve"> C19-SUM(D4:D18)</f>
+        <v>92</v>
+      </c>
+      <c r="E19" s="8">
+        <f xml:space="preserve"> D19-SUM(E4:E18)</f>
+        <v>74</v>
+      </c>
+      <c r="F19" s="8">
+        <f xml:space="preserve"> E19-SUM(F4:F18)</f>
+        <v>56</v>
+      </c>
+      <c r="G19" s="8">
+        <f xml:space="preserve"> F19-SUM(G4:G18)</f>
+        <v>42</v>
+      </c>
+      <c r="H19" s="8">
+        <f xml:space="preserve"> G19-SUM(H4:H18)</f>
+        <v>32</v>
+      </c>
+      <c r="I19" s="9">
+        <f xml:space="preserve"> H19-SUM(I4:I18)</f>
+        <v>12</v>
+      </c>
+      <c r="J19" s="14">
+        <f xml:space="preserve"> I19</f>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -8238,7 +8505,7 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="J4:J13">
+  <conditionalFormatting sqref="J4:J18">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -8253,7 +8520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -8482,69 +8749,41 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
-  <dimension ref="C1:E30"/>
+  <dimension ref="C3:E25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C1" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D1" s="25" t="s">
-        <v>37</v>
-      </c>
-      <c r="E1" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C2" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1</v>
-      </c>
-    </row>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="E3" s="3">
-        <v>16</v>
+      <c r="C3" s="100" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C4" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D4" s="25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E4" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" s="3">
         <v>8</v>
@@ -8555,32 +8794,32 @@
         <v>44</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="E6" s="3">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="E7" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="25" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D8" s="25" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="E8" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
@@ -8588,161 +8827,105 @@
         <v>36</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="E9" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C10" s="25" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="E10" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C11" s="25" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E11" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C12" s="25" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C13" s="25" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>58</v>
+        <v>14</v>
       </c>
       <c r="E13" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C14" s="25" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E14" s="3">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C15" s="25" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="E15" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C16" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="E17" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E20" s="3">
-        <v>8</v>
+      <c r="D20" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="3">
-        <v>4</v>
+      <c r="C21" s="100" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C22" s="25" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="D22" s="25" t="s">
-        <v>62</v>
+        <v>39</v>
       </c>
       <c r="E22" s="3">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C23" s="25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="E23" s="3">
         <v>1</v>
@@ -8750,78 +8933,23 @@
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C24" s="25" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E27" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="25" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="3">
+      <c r="C25" s="98" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="98" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="99">
         <v>16</v>
       </c>
     </row>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C708D-63EF-44FC-8AD3-745FBC194C61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2788DB-028E-4BDC-A342-2B65E2062067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -1026,12 +1026,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1056,12 +1050,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1248,9 +1236,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1258,11 +1243,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2973,7 +2986,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.0022737608003638E-2"/>
+          <c:y val="0.18073563218390806"/>
+          <c:w val="0.94997726239199631"/>
+          <c:h val="0.71720336682052677"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
@@ -3054,33 +3077,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 5'!$C$12:$J$12</c:f>
+              <c:f>'Sprint 5'!$C$17:$J$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6720,15 +6743,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>739140</xdr:colOff>
+      <xdr:colOff>327660</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>392430</xdr:rowOff>
+      <xdr:rowOff>316230</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6760,16 +6783,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>175260</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
+      <xdr:rowOff>262890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7110,16 +7133,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7128,22 +7151,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7154,24 +7177,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="63">
+      <c r="C4" s="59">
         <v>4</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="63">
         <v>4</v>
       </c>
       <c r="E4" s="16"/>
@@ -7180,16 +7203,16 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="60">
         <v>1</v>
       </c>
-      <c r="D5" s="68">
+      <c r="D5" s="64">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -7198,24 +7221,24 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
-      <c r="B6" s="62" t="s">
+      <c r="A6" s="55"/>
+      <c r="B6" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="65">
+      <c r="C6" s="61">
         <v>16</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="69">
+      <c r="E6" s="65">
         <v>4</v>
       </c>
-      <c r="F6" s="69">
+      <c r="F6" s="65">
         <v>4</v>
       </c>
-      <c r="G6" s="69">
+      <c r="G6" s="65">
         <v>4</v>
       </c>
-      <c r="H6" s="70">
+      <c r="H6" s="66">
         <v>4</v>
       </c>
     </row>
@@ -7223,7 +7246,7 @@
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
@@ -7239,7 +7262,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="66">
+      <c r="G7" s="62">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7284,16 +7307,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7302,22 +7325,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7328,24 +7351,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="80"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="71" t="s">
+      <c r="A4" s="67" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="80">
+      <c r="C4" s="76">
         <v>32</v>
       </c>
-      <c r="D4" s="74">
+      <c r="D4" s="70">
         <v>16</v>
       </c>
       <c r="E4" s="15">
@@ -7354,189 +7377,189 @@
       <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="G4" s="43"/>
-      <c r="H4" s="50">
+      <c r="G4" s="39"/>
+      <c r="H4" s="46">
         <f>C4-SUM(D4:G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="72" t="s">
+      <c r="A5" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="74" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="81">
+      <c r="C5" s="77">
         <v>16</v>
       </c>
-      <c r="D5" s="75"/>
+      <c r="D5" s="71"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="44">
+      <c r="G5" s="40">
         <v>8</v>
       </c>
-      <c r="H5" s="51">
+      <c r="H5" s="47">
         <f t="shared" ref="H5:H12" si="0">C5-SUM(D5:G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="72" t="s">
+      <c r="A6" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="81">
+      <c r="C6" s="77">
         <v>1</v>
       </c>
-      <c r="D6" s="75">
+      <c r="D6" s="71">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="51">
+      <c r="G6" s="40"/>
+      <c r="H6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="72" t="s">
+      <c r="A7" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="74" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="81">
+      <c r="C7" s="77">
         <v>8</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="71"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="44">
+      <c r="G7" s="40">
         <v>8</v>
       </c>
-      <c r="H7" s="51">
+      <c r="H7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="81">
+      <c r="C8" s="77">
         <v>16</v>
       </c>
-      <c r="D8" s="75"/>
+      <c r="D8" s="71"/>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="51">
+      <c r="G8" s="40"/>
+      <c r="H8" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="74" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="81">
+      <c r="C9" s="77">
         <v>8</v>
       </c>
-      <c r="D9" s="75">
+      <c r="D9" s="71">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="51">
+      <c r="G9" s="40"/>
+      <c r="H9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="72" t="s">
+      <c r="A10" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="81">
+      <c r="C10" s="77">
         <v>1</v>
       </c>
-      <c r="D10" s="75"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="51">
+      <c r="G10" s="40"/>
+      <c r="H10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="81">
+      <c r="C11" s="77">
         <v>1</v>
       </c>
-      <c r="D11" s="75"/>
+      <c r="D11" s="71"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="51">
+      <c r="G11" s="40"/>
+      <c r="H11" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="73" t="s">
+      <c r="A12" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="79" t="s">
+      <c r="B12" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="82">
+      <c r="C12" s="78">
         <v>1</v>
       </c>
-      <c r="D12" s="76"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46">
+      <c r="D12" s="72"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="41"/>
+      <c r="G12" s="42">
         <v>1</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="49">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="26">
+      <c r="C13" s="24">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
@@ -7552,7 +7575,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7572,7 +7595,7 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <conditionalFormatting sqref="H4:H12">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7600,18 +7623,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7620,28 +7643,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="79" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7652,26 +7675,26 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="60" t="s">
+      <c r="B4" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="36">
         <v>16</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="50">
         <v>4</v>
       </c>
       <c r="E4" s="20">
@@ -7684,23 +7707,23 @@
         <v>4</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="35"/>
-      <c r="J4" s="50">
+      <c r="I4" s="31"/>
+      <c r="J4" s="46">
         <f t="shared" ref="J4:J5" si="0">C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="58" t="s">
+      <c r="A5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="37">
         <v>8</v>
       </c>
-      <c r="D5" s="55"/>
+      <c r="D5" s="51"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2</v>
@@ -7711,37 +7734,37 @@
       <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="51">
+      <c r="I5" s="32"/>
+      <c r="J5" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="62" t="s">
+      <c r="B6" s="58" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="42">
+      <c r="C6" s="38">
         <v>64</v>
       </c>
-      <c r="D6" s="56"/>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29">
+      <c r="D6" s="52"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27">
         <v>8</v>
       </c>
-      <c r="G6" s="29">
+      <c r="G6" s="27">
         <v>8</v>
       </c>
-      <c r="H6" s="29">
+      <c r="H6" s="27">
         <v>8</v>
       </c>
-      <c r="I6" s="39">
+      <c r="I6" s="35">
         <v>8</v>
       </c>
-      <c r="J6" s="53">
+      <c r="J6" s="49">
         <f>C6-SUM(D6:I6)</f>
         <v>32</v>
       </c>
@@ -7750,7 +7773,7 @@
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="24">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>88</v>
       </c>
@@ -7774,7 +7797,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="25">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -7797,7 +7820,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J4:J6">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7825,16 +7848,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7843,25 +7866,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="79" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7872,19 +7895,19 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="43" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="20">
@@ -7902,17 +7925,17 @@
       <c r="G4" s="20">
         <v>8</v>
       </c>
-      <c r="H4" s="35"/>
-      <c r="I4" s="50">
+      <c r="H4" s="31"/>
+      <c r="I4" s="46">
         <f>C4-SUM(D4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="3">
@@ -7922,19 +7945,19 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="36">
+      <c r="H5" s="32">
         <v>8</v>
       </c>
-      <c r="I5" s="51">
+      <c r="I5" s="47">
         <f t="shared" ref="I5:I7" si="0">C5-SUM(D5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="3">
@@ -7948,32 +7971,32 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="51">
+      <c r="H6" s="32"/>
+      <c r="I6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="48" t="s">
+      <c r="A7" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="49" t="s">
+      <c r="B7" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="27">
         <v>8</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29">
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27">
         <v>4</v>
       </c>
-      <c r="G7" s="29">
+      <c r="G7" s="27">
         <v>4</v>
       </c>
-      <c r="H7" s="39"/>
-      <c r="I7" s="52">
+      <c r="H7" s="35"/>
+      <c r="I7" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8024,7 +8047,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="I4:I7">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8039,7 +8062,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="J2" sqref="J2:J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8052,18 +8075,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8072,28 +8095,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="79" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8104,43 +8127,43 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="80"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
+      <c r="A4" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="89" t="s">
+      <c r="B4" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="90">
+      <c r="C4" s="86">
         <v>4</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="86">
         <v>4</v>
       </c>
-      <c r="E4" s="90"/>
-      <c r="F4" s="90"/>
-      <c r="G4" s="90"/>
-      <c r="H4" s="90"/>
-      <c r="I4" s="91"/>
-      <c r="J4" s="50">
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="87"/>
+      <c r="J4" s="46">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="3">
@@ -8153,17 +8176,17 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="51">
+      <c r="I5" s="32"/>
+      <c r="J5" s="47">
         <f t="shared" ref="J5:J18" si="0">C5-SUM(D5:I5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="3">
@@ -8176,17 +8199,17 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="51">
+      <c r="I6" s="32"/>
+      <c r="J6" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="23" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="3">
@@ -8199,17 +8222,17 @@
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="51">
+      <c r="I7" s="32"/>
+      <c r="J7" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="23" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="3">
@@ -8224,17 +8247,17 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="51">
+      <c r="I8" s="32"/>
+      <c r="J8" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="3">
@@ -8247,17 +8270,17 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="51">
+      <c r="I9" s="32"/>
+      <c r="J9" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="23" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="3">
@@ -8278,17 +8301,17 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="36"/>
-      <c r="J10" s="51">
+      <c r="I10" s="32"/>
+      <c r="J10" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="23" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="3">
@@ -8299,19 +8322,19 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="36">
+      <c r="I11" s="32">
         <v>8</v>
       </c>
-      <c r="J11" s="51">
+      <c r="J11" s="47">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="23" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="3">
@@ -8322,135 +8345,135 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="36">
+      <c r="I12" s="32">
         <v>4</v>
       </c>
-      <c r="J12" s="51">
+      <c r="J12" s="47">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="95">
+      <c r="D13" s="94">
         <v>1</v>
       </c>
-      <c r="E13" s="95"/>
-      <c r="F13" s="95"/>
-      <c r="G13" s="95"/>
-      <c r="H13" s="95"/>
-      <c r="I13" s="96"/>
-      <c r="J13" s="97"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="95"/>
+      <c r="J13" s="96"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="23" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="3">
         <v>8</v>
       </c>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="95">
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94">
         <v>8</v>
       </c>
-      <c r="G14" s="95"/>
-      <c r="H14" s="95"/>
-      <c r="I14" s="96"/>
-      <c r="J14" s="97"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="95"/>
+      <c r="J14" s="96"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="23" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>4</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95">
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94">
         <v>4</v>
       </c>
-      <c r="H15" s="95"/>
-      <c r="I15" s="96"/>
-      <c r="J15" s="97"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="95"/>
+      <c r="J15" s="96"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="25" t="s">
+      <c r="B16" s="23" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="3">
         <v>8</v>
       </c>
-      <c r="D16" s="95"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="95"/>
-      <c r="G16" s="95">
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94">
         <v>8</v>
       </c>
-      <c r="H16" s="95"/>
-      <c r="I16" s="96"/>
-      <c r="J16" s="97"/>
+      <c r="H16" s="94"/>
+      <c r="I16" s="95"/>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="23" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="3">
         <v>16</v>
       </c>
-      <c r="D17" s="95"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="95"/>
-      <c r="G17" s="95"/>
-      <c r="H17" s="95">
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="H17" s="94">
         <v>8</v>
       </c>
-      <c r="I17" s="96">
+      <c r="I17" s="95">
         <v>8</v>
       </c>
-      <c r="J17" s="97"/>
+      <c r="J17" s="96"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="93">
+      <c r="C18" s="89">
         <v>1</v>
       </c>
-      <c r="D18" s="93">
+      <c r="D18" s="89">
         <v>1</v>
       </c>
-      <c r="E18" s="93"/>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="52">
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8487,7 +8510,7 @@
         <f xml:space="preserve"> H19-SUM(I4:I18)</f>
         <v>12</v>
       </c>
-      <c r="J19" s="14">
+      <c r="J19" s="9">
         <f xml:space="preserve"> I19</f>
         <v>12</v>
       </c>
@@ -8506,7 +8529,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="J4:J18">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8518,10 +8541,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8533,203 +8556,400 @@
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="85" t="s">
+    <row r="1" spans="1:11" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="83"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="83" t="s">
+      <c r="I2" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="79" t="s">
         <v>41</v>
       </c>
+      <c r="K2" s="79" t="s">
+        <v>73</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="31"/>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="20">
+        <v>16</v>
+      </c>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="98"/>
+      <c r="H4" s="98"/>
+      <c r="I4" s="98"/>
+      <c r="J4" s="99"/>
+      <c r="K4" s="46">
+        <f>C4-SUM(D4:J4)</f>
+        <v>16</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="32"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="22"/>
+    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="3">
+        <v>8</v>
+      </c>
+      <c r="D5" s="94"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="94"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="46">
+        <f t="shared" ref="K5:K16" si="0">C5-SUM(D5:J5)</f>
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="32"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="22"/>
+    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="32"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="22"/>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94"/>
+      <c r="I7" s="94"/>
+      <c r="J7" s="100"/>
+      <c r="K7" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="32"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="22"/>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8</v>
+      </c>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="32"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="22"/>
+    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="3">
+        <v>4</v>
+      </c>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="32"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="22"/>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="100"/>
+      <c r="K10" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="33"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="30"/>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="94">
+        <v>2</v>
+      </c>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="34">
-        <f xml:space="preserve"> SUM(C4:C11)</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="13">
-        <f xml:space="preserve"> C12-SUM(D4:D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <f xml:space="preserve"> D12-SUM(E4:E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <f xml:space="preserve"> E12-SUM(F4:F11)</f>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
-        <f xml:space="preserve"> F12-SUM(G4:G11)</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" ref="H12:J12" si="0" xml:space="preserve"> G12-SUM(H4:H11)</f>
-        <v>0</v>
-      </c>
-      <c r="I12" s="13">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="94">
+        <v>2</v>
+      </c>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="46">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94"/>
+      <c r="I13" s="94"/>
+      <c r="J13" s="100"/>
+      <c r="K13" s="46">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="94"/>
+      <c r="I14" s="94"/>
+      <c r="J14" s="100"/>
+      <c r="K14" s="46">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="3">
+        <v>4</v>
+      </c>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94"/>
+      <c r="H15" s="94"/>
+      <c r="I15" s="94"/>
+      <c r="J15" s="100"/>
+      <c r="K15" s="46">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="29"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J12" s="14">
-        <f t="shared" si="0"/>
-        <v>0</v>
+    </row>
+    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="30">
+        <f xml:space="preserve"> SUM(C4:C16)</f>
+        <v>68</v>
+      </c>
+      <c r="D17" s="13">
+        <f xml:space="preserve"> C17-SUM(D4:D16)</f>
+        <v>64</v>
+      </c>
+      <c r="E17" s="13">
+        <f t="shared" ref="E17:J17" si="1" xml:space="preserve"> D17-SUM(E4:E16)</f>
+        <v>64</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="G17" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="H17" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="J17" s="13">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="K17" s="9">
+        <f xml:space="preserve"> J17</f>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
@@ -8741,6 +8961,11 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="K4:K16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8751,27 +8976,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
   <dimension ref="C3:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="100" t="s">
+      <c r="C3" s="93" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="25" t="s">
+      <c r="D4" s="23" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="3">
@@ -8779,10 +9004,10 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="23" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="3">
@@ -8790,10 +9015,10 @@
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="23" t="s">
         <v>48</v>
       </c>
       <c r="E6" s="3">
@@ -8801,10 +9026,10 @@
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E7" s="3">
@@ -8812,10 +9037,10 @@
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>59</v>
       </c>
       <c r="E8" s="3">
@@ -8823,10 +9048,10 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="D9" s="23" t="s">
         <v>50</v>
       </c>
       <c r="E9" s="3">
@@ -8834,10 +9059,10 @@
       </c>
     </row>
     <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="3">
@@ -8845,10 +9070,10 @@
       </c>
     </row>
     <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="3">
@@ -8856,10 +9081,10 @@
       </c>
     </row>
     <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>57</v>
       </c>
       <c r="E12" s="3">
@@ -8867,10 +9092,10 @@
       </c>
     </row>
     <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>14</v>
       </c>
       <c r="E13" s="3">
@@ -8878,10 +9103,10 @@
       </c>
     </row>
     <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>49</v>
       </c>
       <c r="E14" s="3">
@@ -8889,10 +9114,10 @@
       </c>
     </row>
     <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D15" s="23" t="s">
         <v>63</v>
       </c>
       <c r="E15" s="3">
@@ -8905,15 +9130,15 @@
       </c>
     </row>
     <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="100" t="s">
+      <c r="C21" s="93" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="23" t="s">
         <v>39</v>
       </c>
       <c r="E22" s="3">
@@ -8921,10 +9146,10 @@
       </c>
     </row>
     <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="25" t="s">
+      <c r="C23" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="3">
@@ -8932,10 +9157,10 @@
       </c>
     </row>
     <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>46</v>
       </c>
       <c r="E24" s="3">
@@ -8943,13 +9168,13 @@
       </c>
     </row>
     <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="98" t="s">
+      <c r="C25" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="98" t="s">
+      <c r="D25" s="91" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="99">
+      <c r="E25" s="92">
         <v>16</v>
       </c>
     </row>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2788DB-028E-4BDC-A342-2B65E2062067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532AD77B-CA8F-4D85-AAC7-47FFD4638FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -280,9 +280,6 @@
   <si>
     <t>Importer un fichier excel avec un format précis</t>
   </si>
-  <si>
-    <t>Principal :</t>
-  </si>
 </sst>
 </file>
 
@@ -351,7 +348,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -960,11 +957,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1026,12 +1034,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1047,12 +1049,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,12 +1058,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1092,15 +1082,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1219,16 +1200,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1253,15 +1228,60 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6789,8 +6809,8 @@
       <xdr:rowOff>262890</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>99060</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
@@ -7133,16 +7153,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7151,22 +7171,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7177,24 +7197,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="59">
+      <c r="C4" s="50">
         <v>4</v>
       </c>
-      <c r="D4" s="63">
+      <c r="D4" s="54">
         <v>4</v>
       </c>
       <c r="E4" s="16"/>
@@ -7203,16 +7223,16 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="60">
+      <c r="C5" s="51">
         <v>1</v>
       </c>
-      <c r="D5" s="64">
+      <c r="D5" s="55">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
@@ -7221,24 +7241,24 @@
       <c r="H5" s="18"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55"/>
-      <c r="B6" s="58" t="s">
+      <c r="A6" s="46"/>
+      <c r="B6" s="49" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="52">
         <v>16</v>
       </c>
       <c r="D6" s="19"/>
-      <c r="E6" s="65">
+      <c r="E6" s="56">
         <v>4</v>
       </c>
-      <c r="F6" s="65">
+      <c r="F6" s="56">
         <v>4</v>
       </c>
-      <c r="G6" s="65">
+      <c r="G6" s="56">
         <v>4</v>
       </c>
-      <c r="H6" s="66">
+      <c r="H6" s="57">
         <v>4</v>
       </c>
     </row>
@@ -7246,7 +7266,7 @@
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
@@ -7262,7 +7282,7 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="62">
+      <c r="G7" s="53">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -7307,16 +7327,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7325,22 +7345,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7351,24 +7371,24 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="80"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="71"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="73" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76">
+      <c r="C4" s="67">
         <v>32</v>
       </c>
-      <c r="D4" s="70">
+      <c r="D4" s="61">
         <v>16</v>
       </c>
       <c r="E4" s="15">
@@ -7377,189 +7397,189 @@
       <c r="F4" s="15">
         <v>8</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="46">
+      <c r="G4" s="33"/>
+      <c r="H4" s="37">
         <f>C4-SUM(D4:G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="74" t="s">
+      <c r="B5" s="65" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="77">
+      <c r="C5" s="68">
         <v>16</v>
       </c>
-      <c r="D5" s="71"/>
+      <c r="D5" s="62"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="40">
+      <c r="G5" s="34">
         <v>8</v>
       </c>
-      <c r="H5" s="47">
+      <c r="H5" s="38">
         <f t="shared" ref="H5:H12" si="0">C5-SUM(D5:G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="68" t="s">
+      <c r="A6" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="77">
+      <c r="C6" s="68">
         <v>1</v>
       </c>
-      <c r="D6" s="71">
+      <c r="D6" s="62">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="40"/>
-      <c r="H6" s="47">
+      <c r="G6" s="34"/>
+      <c r="H6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="74" t="s">
+      <c r="B7" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="77">
+      <c r="C7" s="68">
         <v>8</v>
       </c>
-      <c r="D7" s="71"/>
+      <c r="D7" s="62"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="40">
+      <c r="G7" s="34">
         <v>8</v>
       </c>
-      <c r="H7" s="47">
+      <c r="H7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="77">
+      <c r="C8" s="68">
         <v>16</v>
       </c>
-      <c r="D8" s="71"/>
+      <c r="D8" s="62"/>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="47">
+      <c r="G8" s="34"/>
+      <c r="H8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="68" t="s">
+      <c r="A9" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="74" t="s">
+      <c r="B9" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="77">
+      <c r="C9" s="68">
         <v>8</v>
       </c>
-      <c r="D9" s="71">
+      <c r="D9" s="62">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="40"/>
-      <c r="H9" s="47">
+      <c r="G9" s="34"/>
+      <c r="H9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="68" t="s">
+      <c r="A10" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="74" t="s">
+      <c r="B10" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="77">
+      <c r="C10" s="68">
         <v>1</v>
       </c>
-      <c r="D10" s="71"/>
+      <c r="D10" s="62"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="47">
+      <c r="G10" s="34"/>
+      <c r="H10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="68" t="s">
+      <c r="A11" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="74" t="s">
+      <c r="B11" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="68">
         <v>1</v>
       </c>
-      <c r="D11" s="71"/>
+      <c r="D11" s="62"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="40"/>
-      <c r="H11" s="47">
+      <c r="G11" s="34"/>
+      <c r="H11" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="69" t="s">
+      <c r="A12" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="66" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="78">
+      <c r="C12" s="69">
         <v>1</v>
       </c>
-      <c r="D12" s="72"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="42">
+      <c r="D12" s="63"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36">
         <v>1</v>
       </c>
-      <c r="H12" s="49">
+      <c r="H12" s="40">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="22">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
@@ -7575,7 +7595,7 @@
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -7623,18 +7643,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7643,28 +7663,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7675,26 +7695,26 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="53" t="s">
+      <c r="A4" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="30">
         <v>16</v>
       </c>
-      <c r="D4" s="50">
+      <c r="D4" s="41">
         <v>4</v>
       </c>
       <c r="E4" s="20">
@@ -7707,23 +7727,23 @@
         <v>4</v>
       </c>
       <c r="H4" s="20"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="46">
+      <c r="I4" s="27"/>
+      <c r="J4" s="37">
         <f t="shared" ref="J4:J5" si="0">C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="54" t="s">
+      <c r="A5" s="45" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="37">
+      <c r="C5" s="31">
         <v>8</v>
       </c>
-      <c r="D5" s="51"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2</v>
@@ -7734,37 +7754,37 @@
       <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="47">
+      <c r="I5" s="28"/>
+      <c r="J5" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="46" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="38">
+      <c r="C6" s="32">
         <v>64</v>
       </c>
-      <c r="D6" s="52"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27">
+      <c r="D6" s="43"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25">
         <v>8</v>
       </c>
-      <c r="G6" s="27">
+      <c r="G6" s="25">
         <v>8</v>
       </c>
-      <c r="H6" s="27">
+      <c r="H6" s="25">
         <v>8</v>
       </c>
-      <c r="I6" s="35">
+      <c r="I6" s="29">
         <v>8</v>
       </c>
-      <c r="J6" s="49">
+      <c r="J6" s="40">
         <f>C6-SUM(D6:I6)</f>
         <v>32</v>
       </c>
@@ -7773,7 +7793,7 @@
       <c r="B7" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="22">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>88</v>
       </c>
@@ -7797,7 +7817,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I7" s="25">
+      <c r="I7" s="23">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
@@ -7835,7 +7855,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7848,16 +7868,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7866,25 +7886,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7895,25 +7915,25 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="92" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="30">
         <v>32</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="41">
         <v>8</v>
       </c>
       <c r="E4" s="20">
@@ -7925,45 +7945,45 @@
       <c r="G4" s="20">
         <v>8</v>
       </c>
-      <c r="H4" s="31"/>
-      <c r="I4" s="46">
+      <c r="H4" s="27"/>
+      <c r="I4" s="37">
         <f>C4-SUM(D4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>8</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="42"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="32">
+      <c r="H5" s="28">
         <v>8</v>
       </c>
-      <c r="I5" s="47">
+      <c r="I5" s="38">
         <f t="shared" ref="I5:I7" si="0">C5-SUM(D5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="31">
         <v>8</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="42">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -7971,32 +7991,32 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="47">
+      <c r="H6" s="28"/>
+      <c r="I6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="91" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="32">
         <v>8</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27">
+      <c r="D7" s="43"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25">
         <v>4</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="25">
         <v>4</v>
       </c>
-      <c r="H7" s="35"/>
-      <c r="I7" s="48">
+      <c r="H7" s="29"/>
+      <c r="I7" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8062,7 +8082,7 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J19"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8075,18 +8095,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8095,28 +8115,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="70" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8127,118 +8147,118 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="80"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="100" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="86">
+      <c r="C4" s="30">
         <v>4</v>
       </c>
-      <c r="D4" s="86">
+      <c r="D4" s="98">
         <v>4</v>
       </c>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="87"/>
-      <c r="J4" s="46">
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="37">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="93" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>8</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="42">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="32"/>
-      <c r="J5" s="47">
+      <c r="I5" s="28"/>
+      <c r="J5" s="38">
         <f t="shared" ref="J5:J18" si="0">C5-SUM(D5:I5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="42">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="47">
+      <c r="I6" s="28"/>
+      <c r="J6" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="42"/>
       <c r="E7" s="3">
         <v>8</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="32"/>
-      <c r="J7" s="47">
+      <c r="I7" s="28"/>
+      <c r="J7" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
+      <c r="A8" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="93" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="31">
         <v>16</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="42"/>
       <c r="E8" s="3">
         <v>8</v>
       </c>
@@ -8247,46 +8267,46 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="47">
+      <c r="I8" s="28"/>
+      <c r="J8" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="31">
         <v>1</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="42">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="47">
+      <c r="I9" s="28"/>
+      <c r="J9" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" s="97" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="93" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="31">
         <v>16</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="42">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -8301,179 +8321,179 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="32"/>
-      <c r="J10" s="47">
+      <c r="I10" s="28"/>
+      <c r="J10" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="31">
         <v>16</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="32">
+      <c r="I11" s="28">
         <v>8</v>
       </c>
-      <c r="J11" s="47">
+      <c r="J11" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="31">
         <v>8</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="42"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="32">
+      <c r="I12" s="28">
         <v>4</v>
       </c>
-      <c r="J12" s="47">
+      <c r="J12" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="102">
         <v>1</v>
       </c>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="95"/>
-      <c r="J13" s="96"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="85"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="93" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94">
+      <c r="D14" s="102"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83">
         <v>8</v>
       </c>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="95"/>
-      <c r="J14" s="96"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="85"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94">
+      <c r="D15" s="102"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83">
         <v>4</v>
       </c>
-      <c r="H15" s="94"/>
-      <c r="I15" s="95"/>
-      <c r="J15" s="96"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="85"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="31">
         <v>8</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94">
+      <c r="D16" s="102"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83">
         <v>8</v>
       </c>
-      <c r="H16" s="94"/>
-      <c r="I16" s="95"/>
-      <c r="J16" s="96"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+      <c r="J16" s="85"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="A17" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="93" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="31">
         <v>16</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="H17" s="94">
+      <c r="D17" s="102"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="83"/>
+      <c r="H17" s="83">
         <v>8</v>
       </c>
-      <c r="I17" s="95">
+      <c r="I17" s="84">
         <v>8</v>
       </c>
-      <c r="J17" s="96"/>
+      <c r="J17" s="85"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="23" t="s">
+      <c r="A18" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="101" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="89">
+      <c r="C18" s="32">
         <v>1</v>
       </c>
-      <c r="D18" s="89">
+      <c r="D18" s="99">
         <v>1</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="89"/>
-      <c r="G18" s="89"/>
-      <c r="H18" s="89"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="48">
+      <c r="E18" s="78"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="78"/>
+      <c r="H18" s="78"/>
+      <c r="I18" s="79"/>
+      <c r="J18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8544,7 +8564,7 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8557,18 +8577,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="83"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="74"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8577,340 +8598,340 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="70" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="70" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="79" t="s">
+      <c r="I2" s="70" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="79" t="s">
+      <c r="J2" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="79" t="s">
+      <c r="K2" s="70" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="20">
+      <c r="C4" s="30">
         <v>16</v>
       </c>
-      <c r="D4" s="98"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="98"/>
-      <c r="G4" s="98"/>
-      <c r="H4" s="98"/>
-      <c r="I4" s="98"/>
-      <c r="J4" s="99"/>
-      <c r="K4" s="46">
+      <c r="D4" s="104"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="87"/>
+      <c r="K4" s="37">
         <f>C4-SUM(D4:J4)</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="31">
         <v>8</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="94"/>
-      <c r="J5" s="100"/>
-      <c r="K5" s="46">
+      <c r="D5" s="102"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="38">
         <f t="shared" ref="K5:K16" si="0">C5-SUM(D5:J5)</f>
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="100"/>
-      <c r="K6" s="46">
+      <c r="D6" s="102"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94"/>
-      <c r="I7" s="94"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="46">
+      <c r="D7" s="102"/>
+      <c r="E7" s="83"/>
+      <c r="F7" s="83"/>
+      <c r="G7" s="83"/>
+      <c r="H7" s="83"/>
+      <c r="I7" s="83"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="22" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="93" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="31">
         <v>8</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94"/>
-      <c r="I8" s="94"/>
-      <c r="J8" s="100"/>
-      <c r="K8" s="46">
+      <c r="D8" s="102"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="83"/>
+      <c r="I8" s="83"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="89" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="31">
         <v>4</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="46">
+      <c r="D9" s="102"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="H9" s="83"/>
+      <c r="I9" s="83"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="22" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94"/>
-      <c r="I10" s="94"/>
-      <c r="J10" s="100"/>
-      <c r="K10" s="46">
+      <c r="D10" s="102"/>
+      <c r="E10" s="83"/>
+      <c r="F10" s="83"/>
+      <c r="G10" s="83"/>
+      <c r="H10" s="83"/>
+      <c r="I10" s="83"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="31">
         <v>8</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="102">
         <v>2</v>
       </c>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="94"/>
-      <c r="J11" s="100"/>
-      <c r="K11" s="46">
+      <c r="E11" s="83"/>
+      <c r="F11" s="83"/>
+      <c r="G11" s="83"/>
+      <c r="H11" s="83"/>
+      <c r="I11" s="83"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="22" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="31">
         <v>8</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="102">
         <v>2</v>
       </c>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94"/>
-      <c r="I12" s="94"/>
-      <c r="J12" s="100"/>
-      <c r="K12" s="46">
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="83"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="83"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="100"/>
-      <c r="K13" s="46">
+      <c r="D13" s="102"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="83"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="22" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="94"/>
-      <c r="I14" s="94"/>
-      <c r="J14" s="100"/>
-      <c r="K14" s="46">
+      <c r="D14" s="102"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="83"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="89" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="93" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94"/>
-      <c r="H15" s="94"/>
-      <c r="I15" s="94"/>
-      <c r="J15" s="100"/>
-      <c r="K15" s="46">
+      <c r="D15" s="102"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="83"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="83"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="29"/>
-      <c r="B16" s="27"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="46">
+      <c r="A16" s="103"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="29"/>
+      <c r="K16" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="26">
         <f xml:space="preserve"> SUM(C4:C16)</f>
         <v>68</v>
       </c>
@@ -8942,7 +8963,7 @@
         <f t="shared" si="1"/>
         <v>64</v>
       </c>
-      <c r="K17" s="9">
+      <c r="K17" s="14">
         <f xml:space="preserve"> J17</f>
         <v>64</v>
       </c>
@@ -8950,10 +8971,10 @@
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:K1"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
@@ -8974,10 +8995,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
-  <dimension ref="C3:E25"/>
+  <dimension ref="C4:E9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:L15"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8987,194 +9008,57 @@
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C3" s="93" t="s">
-        <v>79</v>
-      </c>
-    </row>
     <row r="4" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3">
-        <v>16</v>
+      <c r="D4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3">
-        <v>8</v>
+      <c r="C5" s="82" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>48</v>
+      <c r="C6" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="E6" s="3">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>14</v>
+      <c r="C7" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>59</v>
+      <c r="C8" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="21" t="s">
+        <v>46</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C10" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C11" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C12" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E12" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="93" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E22" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="E24" s="3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="91" t="s">
+      <c r="C9" s="80" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D9" s="80" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="92">
+      <c r="E9" s="81">
         <v>16</v>
       </c>
     </row>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532AD77B-CA8F-4D85-AAC7-47FFD4638FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489E56D-241D-466A-B806-A2DB34A23992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1278,11 +1278,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3097,33 +3106,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 5'!$C$17:$J$17</c:f>
+              <c:f>'Sprint 5'!$C$18:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>68</c:v>
+                  <c:v>80</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8081,8 +8090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A13:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8561,10 +8570,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8653,7 +8662,7 @@
       <c r="C4" s="30">
         <v>16</v>
       </c>
-      <c r="D4" s="104"/>
+      <c r="D4" s="103"/>
       <c r="E4" s="86"/>
       <c r="F4" s="86"/>
       <c r="G4" s="86"/>
@@ -8683,7 +8692,7 @@
       <c r="I5" s="83"/>
       <c r="J5" s="84"/>
       <c r="K5" s="38">
-        <f t="shared" ref="K5:K16" si="0">C5-SUM(D5:J5)</f>
+        <f t="shared" ref="K5:K17" si="0">C5-SUM(D5:J5)</f>
         <v>8</v>
       </c>
     </row>
@@ -8911,61 +8920,89 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="103"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="29"/>
-      <c r="K16" s="39">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="31">
+        <v>8</v>
+      </c>
+      <c r="D16" s="104"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="105"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="106"/>
+      <c r="K16" s="38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="24" t="s">
+    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="107" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="101" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="32">
+        <v>4</v>
+      </c>
+      <c r="D17" s="43"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="39">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="26">
-        <f xml:space="preserve"> SUM(C4:C16)</f>
-        <v>68</v>
-      </c>
-      <c r="D17" s="13">
-        <f xml:space="preserve"> C17-SUM(D4:D16)</f>
-        <v>64</v>
-      </c>
-      <c r="E17" s="13">
-        <f t="shared" ref="E17:J17" si="1" xml:space="preserve"> D17-SUM(E4:E16)</f>
-        <v>64</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="C18" s="26">
+        <f xml:space="preserve"> SUM(C4:C17)</f>
+        <v>80</v>
+      </c>
+      <c r="D18" s="13">
+        <f xml:space="preserve"> C18-SUM(D4:D17)</f>
+        <v>76</v>
+      </c>
+      <c r="E18" s="13">
+        <f t="shared" ref="E18:J18" si="1" xml:space="preserve"> D18-SUM(E4:E17)</f>
+        <v>76</v>
+      </c>
+      <c r="F18" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="G17" s="13">
+        <v>76</v>
+      </c>
+      <c r="G18" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="H17" s="13">
+        <v>76</v>
+      </c>
+      <c r="H18" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="I17" s="13">
+        <v>76</v>
+      </c>
+      <c r="I18" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="J17" s="13">
+        <v>76</v>
+      </c>
+      <c r="J18" s="13">
         <f t="shared" si="1"/>
-        <v>64</v>
-      </c>
-      <c r="K17" s="14">
-        <f xml:space="preserve"> J17</f>
-        <v>64</v>
+        <v>76</v>
+      </c>
+      <c r="K18" s="14">
+        <f xml:space="preserve"> J18</f>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -8982,7 +9019,7 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K4:K16">
+  <conditionalFormatting sqref="K4:K17">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B489E56D-241D-466A-B806-A2DB34A23992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508C8BF-8CDD-4AEE-AC3E-667D310D56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -972,7 +972,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1181,24 +1181,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1209,12 +1191,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1292,6 +1268,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7162,16 +7156,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7180,22 +7174,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7206,12 +7200,12 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
@@ -7327,7 +7321,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="7" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
@@ -7336,16 +7330,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7354,22 +7348,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7380,12 +7374,12 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="71"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="101"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="58" t="s">
@@ -7639,31 +7633,31 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7672,28 +7666,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7704,14 +7698,14 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="44" t="s">
@@ -7869,24 +7863,24 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="8" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="104"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7895,25 +7889,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7924,19 +7918,19 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
+      <c r="C3" s="101"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="84" t="s">
         <v>74</v>
       </c>
       <c r="C4" s="30">
@@ -7961,10 +7955,10 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="85" t="s">
         <v>71</v>
       </c>
       <c r="C5" s="31">
@@ -7983,10 +7977,10 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="90" t="s">
+      <c r="A6" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="86" t="s">
         <v>29</v>
       </c>
       <c r="C6" s="31">
@@ -8007,10 +8001,10 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="91" t="s">
+      <c r="A7" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="95" t="s">
+      <c r="B7" s="87" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="32">
@@ -8090,32 +8084,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A13:B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="37.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="104"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8124,28 +8118,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8156,43 +8150,43 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="71"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="101"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="92" t="s">
         <v>61</v>
       </c>
       <c r="C4" s="30">
         <v>4</v>
       </c>
-      <c r="D4" s="98">
+      <c r="D4" s="90">
         <v>4</v>
       </c>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77"/>
+      <c r="E4" s="70"/>
+      <c r="F4" s="70"/>
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="71"/>
       <c r="J4" s="37">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="85" t="s">
         <v>62</v>
       </c>
       <c r="C5" s="31">
@@ -8212,10 +8206,10 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="31">
@@ -8235,10 +8229,10 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="85" t="s">
         <v>66</v>
       </c>
       <c r="C7" s="31">
@@ -8258,10 +8252,10 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="85" t="s">
         <v>67</v>
       </c>
       <c r="C8" s="31">
@@ -8283,10 +8277,10 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="31">
@@ -8306,10 +8300,10 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="89" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="85" t="s">
         <v>68</v>
       </c>
       <c r="C10" s="31">
@@ -8337,10 +8331,10 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C11" s="31">
@@ -8360,10 +8354,10 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="89" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C12" s="31">
@@ -8383,125 +8377,125 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="97" t="s">
+      <c r="A13" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="102">
+      <c r="D13" s="94">
         <v>1</v>
       </c>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="84"/>
-      <c r="J13" s="85"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="85" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83">
+      <c r="D14" s="94"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75">
         <v>8</v>
       </c>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="85"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="76"/>
+      <c r="J14" s="77"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="85" t="s">
         <v>51</v>
       </c>
       <c r="C15" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83">
+      <c r="D15" s="94"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75">
         <v>4</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="85"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="76"/>
+      <c r="J15" s="77"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="97" t="s">
+      <c r="A16" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C16" s="31">
         <v>8</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83">
+      <c r="D16" s="94"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75">
         <v>8</v>
       </c>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="85"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="76"/>
+      <c r="J16" s="77"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="85" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="31">
         <v>16</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="83">
+      <c r="D17" s="94"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="75">
         <v>8</v>
       </c>
-      <c r="I17" s="84">
+      <c r="I17" s="76">
         <v>8</v>
       </c>
-      <c r="J17" s="85"/>
+      <c r="J17" s="77"/>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="97" t="s">
+      <c r="A18" s="89" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="101" t="s">
+      <c r="B18" s="93" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="32">
         <v>1</v>
       </c>
-      <c r="D18" s="99">
+      <c r="D18" s="91">
         <v>1</v>
       </c>
-      <c r="E18" s="78"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="78"/>
-      <c r="H18" s="78"/>
-      <c r="I18" s="79"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="72"/>
+      <c r="I18" s="73"/>
       <c r="J18" s="39">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -8516,27 +8510,27 @@
         <v>116</v>
       </c>
       <c r="D19" s="8">
-        <f xml:space="preserve"> C19-SUM(D4:D18)</f>
+        <f t="shared" ref="D19:I19" si="1" xml:space="preserve"> C19-SUM(D4:D18)</f>
         <v>92</v>
       </c>
       <c r="E19" s="8">
-        <f xml:space="preserve"> D19-SUM(E4:E18)</f>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="F19" s="8">
-        <f xml:space="preserve"> E19-SUM(F4:F18)</f>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="G19" s="8">
-        <f xml:space="preserve"> F19-SUM(G4:G18)</f>
+        <f t="shared" si="1"/>
         <v>42</v>
       </c>
       <c r="H19" s="8">
-        <f xml:space="preserve"> G19-SUM(H4:H18)</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="I19" s="9">
-        <f xml:space="preserve"> H19-SUM(I4:I18)</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="J19" s="9">
@@ -8572,33 +8566,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="102" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
-      <c r="K1" s="74"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8607,31 +8601,31 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="70" t="s">
+      <c r="C2" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D2" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="E2" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="70" t="s">
+      <c r="I2" s="100" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="70" t="s">
+      <c r="J2" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="70" t="s">
+      <c r="K2" s="100" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8642,311 +8636,311 @@
       <c r="B3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="105"/>
+      <c r="G3" s="105"/>
+      <c r="H3" s="105"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="92" t="s">
         <v>40</v>
       </c>
       <c r="C4" s="30">
         <v>16</v>
       </c>
-      <c r="D4" s="103"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
-      <c r="J4" s="87"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="78"/>
+      <c r="H4" s="78"/>
+      <c r="I4" s="78"/>
+      <c r="J4" s="79"/>
       <c r="K4" s="37">
         <f>C4-SUM(D4:J4)</f>
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="93" t="s">
+      <c r="B5" s="85" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="31">
         <v>8</v>
       </c>
-      <c r="D5" s="102"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="75"/>
+      <c r="F5" s="75"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
       <c r="K5" s="38">
         <f t="shared" ref="K5:K17" si="0">C5-SUM(D5:J5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="85" t="s">
         <v>48</v>
       </c>
       <c r="C6" s="31">
         <v>1</v>
       </c>
-      <c r="D6" s="102"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="84"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="93" t="s">
+      <c r="B7" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="31">
         <v>1</v>
       </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="83"/>
-      <c r="F7" s="83"/>
-      <c r="G7" s="83"/>
-      <c r="H7" s="83"/>
-      <c r="I7" s="83"/>
-      <c r="J7" s="84"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="75"/>
+      <c r="F7" s="75"/>
+      <c r="G7" s="75"/>
+      <c r="H7" s="75"/>
+      <c r="I7" s="75"/>
+      <c r="J7" s="76"/>
       <c r="K7" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="93" t="s">
+      <c r="B8" s="85" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="31">
         <v>8</v>
       </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="83"/>
-      <c r="F8" s="83"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="83"/>
-      <c r="I8" s="83"/>
-      <c r="J8" s="84"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="75"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
       <c r="K8" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="93" t="s">
+      <c r="B9" s="85" t="s">
         <v>50</v>
       </c>
       <c r="C9" s="31">
         <v>4</v>
       </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="84"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="75"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="76"/>
       <c r="K9" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="93" t="s">
+      <c r="B10" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="31">
         <v>1</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="84"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="H10" s="75"/>
+      <c r="I10" s="75"/>
+      <c r="J10" s="76"/>
       <c r="K10" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="93" t="s">
+      <c r="B11" s="85" t="s">
         <v>54</v>
       </c>
       <c r="C11" s="31">
         <v>8</v>
       </c>
-      <c r="D11" s="102">
+      <c r="D11" s="94">
         <v>2</v>
       </c>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="83"/>
-      <c r="I11" s="83"/>
-      <c r="J11" s="84"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="75"/>
+      <c r="H11" s="75"/>
+      <c r="I11" s="75"/>
+      <c r="J11" s="76"/>
       <c r="K11" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="93" t="s">
+      <c r="B12" s="85" t="s">
         <v>57</v>
       </c>
       <c r="C12" s="31">
         <v>8</v>
       </c>
-      <c r="D12" s="102">
+      <c r="D12" s="94">
         <v>2</v>
       </c>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="83"/>
-      <c r="I12" s="83"/>
-      <c r="J12" s="84"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="75"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="76"/>
       <c r="K12" s="38">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="93" t="s">
+      <c r="B13" s="85" t="s">
         <v>14</v>
       </c>
       <c r="C13" s="31">
         <v>1</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="83"/>
-      <c r="I13" s="83"/>
-      <c r="J13" s="84"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="76"/>
       <c r="K13" s="38">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="93" t="s">
+      <c r="B14" s="85" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="31">
         <v>8</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="83"/>
-      <c r="I14" s="83"/>
-      <c r="J14" s="84"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="76"/>
       <c r="K14" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="93" t="s">
+      <c r="B15" s="85" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="31">
         <v>4</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="84"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="76"/>
       <c r="K15" s="38">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="81" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="93" t="s">
+      <c r="B16" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C16" s="31">
         <v>8</v>
       </c>
-      <c r="D16" s="104"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="105"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="106"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="98"/>
       <c r="K16" s="38">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="99" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="93" t="s">
         <v>56</v>
       </c>
       <c r="C17" s="32">
@@ -9040,8 +9034,8 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -9051,7 +9045,7 @@
       </c>
     </row>
     <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="74" t="s">
         <v>76</v>
       </c>
     </row>
@@ -9089,13 +9083,13 @@
       </c>
     </row>
     <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="80" t="s">
+      <c r="C9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="D9" s="80" t="s">
+      <c r="D9" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="3">
         <v>16</v>
       </c>
     </row>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3508C8BF-8CDD-4AEE-AC3E-667D310D56F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B7C63-0EB2-4507-8657-FAA15CE4D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-135" yWindow="-135" windowWidth="29070" windowHeight="15750" activeTab="5" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -8084,7 +8084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
@@ -8566,7 +8566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0B7C63-0EB2-4507-8657-FAA15CE4D995}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A97C7DF-CA05-4583-AB4E-64D4086D2F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" activeTab="4" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprint 0" sheetId="3" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -275,10 +275,40 @@
     <t>Extension :</t>
   </si>
   <si>
-    <t>CSV</t>
+    <t>Importer un fichier excel avec un format précis</t>
   </si>
   <si>
-    <t>Importer un fichier excel avec un format précis</t>
+    <t>XLSX</t>
+  </si>
+  <si>
+    <t>25min de presentation + 15min de questions</t>
+  </si>
+  <si>
+    <t>Rappeler la justification du déroulé du projet</t>
+  </si>
+  <si>
+    <t>Découpage du travail</t>
+  </si>
+  <si>
+    <t>Vidéo de la démo</t>
+  </si>
+  <si>
+    <t>Synthèse US</t>
+  </si>
+  <si>
+    <t>Travail personnel + retour d'expérience</t>
+  </si>
+  <si>
+    <t>2 jurys : ? + ?</t>
+  </si>
+  <si>
+    <t>Présentation pour un client non informaticien</t>
+  </si>
+  <si>
+    <t>Faire au plus simple, avec un tableau fixe</t>
+  </si>
+  <si>
+    <t>Rdv mardi 23 9h30</t>
   </si>
 </sst>
 </file>
@@ -348,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="47">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -478,34 +508,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -933,46 +935,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -992,46 +959,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1040,16 +1001,22 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1064,228 +1031,198 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7156,16 +7093,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7174,122 +7111,122 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <v>4</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="52">
         <v>4</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>1</v>
       </c>
-      <c r="D5" s="55">
+      <c r="D5" s="53">
         <v>1</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="18"/>
+      <c r="H5" s="16"/>
     </row>
     <row r="6" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46"/>
-      <c r="B6" s="49" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="52">
+      <c r="C6" s="50">
         <v>16</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="56">
+      <c r="D6" s="17"/>
+      <c r="E6" s="54">
         <v>4</v>
       </c>
-      <c r="F6" s="56">
+      <c r="F6" s="54">
         <v>4</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="54">
         <v>4</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="55">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>21</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D7" s="11">
         <f xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>16</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="11">
         <f t="shared" ref="E7:H7" si="0" xml:space="preserve"> D7-SUM(E4:E6)</f>
         <v>12</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="11">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G7" s="53">
+      <c r="G7" s="51">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -7330,16 +7267,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7348,261 +7285,261 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="90"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="67">
+      <c r="C4" s="65">
         <v>32</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>16</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="13">
         <v>8</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="13">
         <v>8</v>
       </c>
-      <c r="G4" s="33"/>
-      <c r="H4" s="37">
+      <c r="G4" s="31"/>
+      <c r="H4" s="35">
         <f>C4-SUM(D4:G4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="63" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="66">
         <v>16</v>
       </c>
-      <c r="D5" s="62"/>
+      <c r="D5" s="60"/>
       <c r="E5" s="4"/>
       <c r="F5" s="4">
         <v>8</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="32">
         <v>8</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <f t="shared" ref="H5:H12" si="0">C5-SUM(D5:G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="68">
+      <c r="C6" s="66">
         <v>1</v>
       </c>
-      <c r="D6" s="62">
+      <c r="D6" s="60">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="38">
+      <c r="G6" s="32"/>
+      <c r="H6" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="68">
+      <c r="C7" s="66">
         <v>8</v>
       </c>
-      <c r="D7" s="62"/>
+      <c r="D7" s="60"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
-      <c r="G7" s="34">
+      <c r="G7" s="32">
         <v>8</v>
       </c>
-      <c r="H7" s="38">
+      <c r="H7" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="68">
+      <c r="C8" s="66">
         <v>16</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="60"/>
       <c r="E8" s="4">
         <v>10</v>
       </c>
       <c r="F8" s="4">
         <v>6</v>
       </c>
-      <c r="G8" s="34"/>
-      <c r="H8" s="38">
+      <c r="G8" s="32"/>
+      <c r="H8" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="59" t="s">
+      <c r="A9" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="68">
+      <c r="C9" s="66">
         <v>8</v>
       </c>
-      <c r="D9" s="62">
+      <c r="D9" s="60">
         <v>8</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="38">
+      <c r="G9" s="32"/>
+      <c r="H9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
+      <c r="A10" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="68">
+      <c r="C10" s="66">
         <v>1</v>
       </c>
-      <c r="D10" s="62"/>
+      <c r="D10" s="60"/>
       <c r="E10" s="4">
         <v>1</v>
       </c>
       <c r="F10" s="4"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="38">
+      <c r="G10" s="32"/>
+      <c r="H10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="68">
+      <c r="C11" s="66">
         <v>1</v>
       </c>
-      <c r="D11" s="62"/>
+      <c r="D11" s="60"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="34"/>
-      <c r="H11" s="38">
+      <c r="G11" s="32"/>
+      <c r="H11" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="60" t="s">
+      <c r="A12" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="66" t="s">
+      <c r="B12" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="69">
+      <c r="C12" s="67">
         <v>1</v>
       </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36">
+      <c r="D12" s="61"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="34">
         <v>1</v>
       </c>
-      <c r="H12" s="40">
+      <c r="H12" s="38">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="20">
         <f xml:space="preserve"> SUM(C4:C12)</f>
         <v>84</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <f xml:space="preserve"> C13-SUM(D4:D12)</f>
         <v>59</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="7">
         <f t="shared" ref="E13:G13" si="1" xml:space="preserve"> D13-SUM(E4:E12)</f>
         <v>40</v>
       </c>
-      <c r="F13" s="8">
+      <c r="F13" s="7">
         <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="G13" s="23">
+      <c r="G13" s="21">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="8">
         <f xml:space="preserve"> G13</f>
         <v>0</v>
       </c>
@@ -7646,18 +7583,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7666,28 +7603,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="89" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7698,55 +7635,55 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>16</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>4</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>4</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>4</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>4</v>
       </c>
-      <c r="H4" s="20"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="37">
+      <c r="H4" s="18"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="35">
         <f t="shared" ref="J4:J5" si="0">C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="45" t="s">
+      <c r="A5" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3">
         <v>2</v>
@@ -7757,74 +7694,74 @@
       <c r="H5" s="3">
         <v>4</v>
       </c>
-      <c r="I5" s="28"/>
-      <c r="J5" s="38">
+      <c r="I5" s="26"/>
+      <c r="J5" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="49" t="s">
+      <c r="B6" s="47" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="32">
+      <c r="C6" s="30">
         <v>64</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25">
+      <c r="D6" s="41"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23">
         <v>8</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="23">
         <v>8</v>
       </c>
-      <c r="H6" s="25">
+      <c r="H6" s="23">
         <v>8</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="27">
         <v>8</v>
       </c>
-      <c r="J6" s="40">
+      <c r="J6" s="38">
         <f>C6-SUM(D6:I6)</f>
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="20">
         <f xml:space="preserve"> SUM(C4:C6)</f>
         <v>88</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="7">
         <f t="shared" ref="D7:I7" si="1" xml:space="preserve"> C7-SUM(D4:D6)</f>
         <v>84</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="7">
         <f t="shared" si="1"/>
         <v>80</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="7">
         <f t="shared" si="1"/>
         <v>66</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="7">
         <f t="shared" si="1"/>
         <v>52</v>
       </c>
-      <c r="H7" s="8">
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="21">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="J7" s="10">
+      <c r="J7" s="8">
         <f xml:space="preserve"> I7</f>
         <v>32</v>
       </c>
@@ -7871,16 +7808,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7889,25 +7826,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="89" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7918,75 +7855,75 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="73" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="77" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>32</v>
       </c>
-      <c r="D4" s="41">
+      <c r="D4" s="39">
         <v>8</v>
       </c>
-      <c r="E4" s="20">
+      <c r="E4" s="18">
         <v>8</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="18">
         <v>8</v>
       </c>
-      <c r="G4" s="20">
+      <c r="G4" s="18">
         <v>8</v>
       </c>
-      <c r="H4" s="27"/>
-      <c r="I4" s="37">
+      <c r="H4" s="25"/>
+      <c r="I4" s="35">
         <f>C4-SUM(D4:H4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="40"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="28">
+      <c r="H5" s="26">
         <v>8</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="36">
         <f t="shared" ref="I5:I7" si="0">C5-SUM(D5:H5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+      <c r="A6" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>8</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <v>4</v>
       </c>
       <c r="E6" s="3">
@@ -7994,65 +7931,65 @@
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="38">
+      <c r="H6" s="26"/>
+      <c r="I6" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="87" t="s">
+      <c r="B7" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="32">
+      <c r="C7" s="30">
         <v>8</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25">
+      <c r="D7" s="41"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23">
         <v>4</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="23">
         <v>4</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="39">
+      <c r="H7" s="27"/>
+      <c r="I7" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <f xml:space="preserve"> SUM(C3:C7)</f>
         <v>56</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="11">
         <f xml:space="preserve"> C8-SUM(D4:D7)</f>
         <v>44</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="11">
         <f xml:space="preserve"> D8-SUM(E4:E7)</f>
         <v>32</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="11">
         <f xml:space="preserve"> E8-SUM(F4:F7)</f>
         <v>20</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="11">
         <f xml:space="preserve"> F8-SUM(G4:G7)</f>
         <v>8</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="12">
         <f xml:space="preserve"> G8-SUM(H4:H7)</f>
         <v>0</v>
       </c>
-      <c r="I8" s="14">
+      <c r="I8" s="12">
         <f xml:space="preserve"> H8</f>
         <v>0</v>
       </c>
@@ -8082,34 +8019,35 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F379E94E-823B-4583-A185-CFE46E0E1197}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="9" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="11.5546875" style="1"/>
+    <col min="3" max="3" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="6.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="93"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8118,150 +8056,150 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="101"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="90"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="88" t="s">
+      <c r="A4" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>4</v>
       </c>
-      <c r="D4" s="90">
+      <c r="D4" s="39">
         <v>4</v>
       </c>
-      <c r="E4" s="70"/>
-      <c r="F4" s="70"/>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="71"/>
-      <c r="J4" s="37">
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="35">
         <f>C4-SUM(D4:I4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
+      <c r="A5" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="40">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="38">
+      <c r="I5" s="26"/>
+      <c r="J5" s="36">
         <f t="shared" ref="J5:J18" si="0">C5-SUM(D5:I5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="40">
         <v>1</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="38">
+      <c r="I6" s="26"/>
+      <c r="J6" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
+      <c r="A7" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>8</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="40"/>
       <c r="E7" s="3">
         <v>8</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="28"/>
-      <c r="J7" s="38">
+      <c r="I7" s="26"/>
+      <c r="J7" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
+      <c r="A8" s="74" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>16</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="40"/>
       <c r="E8" s="3">
         <v>8</v>
       </c>
@@ -8270,46 +8208,46 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="38">
+      <c r="I8" s="26"/>
+      <c r="J8" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>1</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="40">
         <v>1</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="38">
+      <c r="I9" s="26"/>
+      <c r="J9" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="89" t="s">
+      <c r="A10" s="74" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="78" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>16</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="40">
         <v>8</v>
       </c>
       <c r="E10" s="3">
@@ -8324,218 +8262,276 @@
       <c r="H10" s="3">
         <v>2</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="38">
+      <c r="I10" s="26"/>
+      <c r="J10" s="36">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="89" t="s">
+      <c r="A11" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>16</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="40"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="28">
+      <c r="I11" s="26">
         <v>8</v>
       </c>
-      <c r="J11" s="38">
+      <c r="J11" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="89" t="s">
+      <c r="A12" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="40"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="28">
+      <c r="I12" s="26">
         <v>4</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="89" t="s">
+      <c r="A13" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="83">
         <v>1</v>
       </c>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75">
+      <c r="D14" s="83"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69">
         <v>8</v>
       </c>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="76"/>
-      <c r="J14" s="77"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="89" t="s">
+      <c r="A15" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>4</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75">
+      <c r="D15" s="83"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69">
         <v>4</v>
       </c>
-      <c r="H15" s="75"/>
-      <c r="I15" s="76"/>
-      <c r="J15" s="77"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="89" t="s">
+      <c r="A16" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>8</v>
       </c>
-      <c r="D16" s="94"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75">
+      <c r="D16" s="83"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69">
         <v>8</v>
       </c>
-      <c r="H16" s="75"/>
-      <c r="I16" s="76"/>
-      <c r="J16" s="77"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="85" t="s">
+      <c r="B17" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="31">
+      <c r="C17" s="29">
         <v>16</v>
       </c>
-      <c r="D17" s="94"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75">
+      <c r="D17" s="83"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69">
         <v>8</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="70">
         <v>8</v>
       </c>
-      <c r="J17" s="77"/>
+      <c r="J17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="88" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="93" t="s">
+      <c r="B18" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="32">
+      <c r="C18" s="30">
         <v>1</v>
       </c>
-      <c r="D18" s="91">
+      <c r="D18" s="41">
         <v>1</v>
       </c>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="39">
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="37">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="10">
         <f xml:space="preserve"> SUM(C4:C18)</f>
         <v>116</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="11">
         <f t="shared" ref="D19:I19" si="1" xml:space="preserve"> C19-SUM(D4:D18)</f>
         <v>92</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="11">
         <f t="shared" si="1"/>
         <v>74</v>
       </c>
-      <c r="F19" s="8">
+      <c r="F19" s="11">
         <f t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="G19" s="8">
+      <c r="G19" s="11">
         <f t="shared" si="1"/>
         <v>42</v>
       </c>
-      <c r="H19" s="8">
+      <c r="H19" s="11">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="12">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="12">
         <f xml:space="preserve"> I19</f>
         <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="95"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -8567,7 +8563,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8580,19 +8576,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="102" t="s">
+      <c r="A1" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="104"/>
+      <c r="B1" s="92"/>
+      <c r="C1" s="92"/>
+      <c r="D1" s="92"/>
+      <c r="E1" s="92"/>
+      <c r="F1" s="92"/>
+      <c r="G1" s="92"/>
+      <c r="H1" s="92"/>
+      <c r="I1" s="92"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="93"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8601,400 +8597,400 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="100" t="s">
+      <c r="E2" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="100" t="s">
+      <c r="G2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="100" t="s">
+      <c r="H2" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="100" t="s">
+      <c r="I2" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="100" t="s">
+      <c r="J2" s="89" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="100" t="s">
+      <c r="K2" s="89" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="105"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="105"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="94"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="94"/>
+      <c r="I3" s="94"/>
+      <c r="J3" s="94"/>
+      <c r="K3" s="94"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="80" t="s">
+      <c r="A4" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="81" t="s">
         <v>40</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="28">
         <v>16</v>
       </c>
-      <c r="D4" s="95"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="37">
+      <c r="D4" s="84"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="35">
         <f>C4-SUM(D4:J4)</f>
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="81" t="s">
+      <c r="A5" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="85" t="s">
+      <c r="B5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="29">
         <v>8</v>
       </c>
-      <c r="D5" s="94"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="38">
+      <c r="D5" s="83"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="36">
         <f t="shared" ref="K5:K17" si="0">C5-SUM(D5:J5)</f>
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="81" t="s">
+      <c r="A6" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="85" t="s">
+      <c r="B6" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="29">
         <v>1</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="38">
+      <c r="D6" s="83"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="81" t="s">
+      <c r="A7" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="85" t="s">
+      <c r="B7" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="31">
+      <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="94"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="38">
+      <c r="D7" s="83"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="81" t="s">
+      <c r="A8" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="31">
+      <c r="C8" s="29">
         <v>8</v>
       </c>
-      <c r="D8" s="94"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="38">
+      <c r="D8" s="83"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="85" t="s">
+      <c r="B9" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="31">
+      <c r="C9" s="29">
         <v>4</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="38">
+      <c r="D9" s="83"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B10" s="85" t="s">
+      <c r="B10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="31">
+      <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="94"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="38">
+      <c r="D10" s="83"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="81" t="s">
+      <c r="A11" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="85" t="s">
+      <c r="B11" s="78" t="s">
         <v>54</v>
       </c>
-      <c r="C11" s="31">
+      <c r="C11" s="29">
         <v>8</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="83">
         <v>2</v>
       </c>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="76"/>
-      <c r="K11" s="38">
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="81" t="s">
+      <c r="A12" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="C12" s="31">
+      <c r="C12" s="29">
         <v>8</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="83">
         <v>2</v>
       </c>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="38">
+      <c r="E12" s="69"/>
+      <c r="F12" s="69"/>
+      <c r="G12" s="69"/>
+      <c r="H12" s="69"/>
+      <c r="I12" s="69"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="36">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="81" t="s">
+      <c r="A13" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="31">
+      <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="94"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="76"/>
-      <c r="K13" s="38">
+      <c r="D13" s="83"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="36">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="81" t="s">
+      <c r="A14" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="31">
+      <c r="C14" s="29">
         <v>8</v>
       </c>
-      <c r="D14" s="94"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="76"/>
-      <c r="K14" s="38">
+      <c r="D14" s="83"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="81" t="s">
+      <c r="A15" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="31">
+      <c r="C15" s="29">
         <v>4</v>
       </c>
-      <c r="D15" s="94"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="76"/>
-      <c r="K15" s="38">
+      <c r="D15" s="83"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="36">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="81" t="s">
+      <c r="A16" s="74" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="85" t="s">
+      <c r="B16" s="78" t="s">
         <v>55</v>
       </c>
-      <c r="C16" s="31">
+      <c r="C16" s="29">
         <v>8</v>
       </c>
-      <c r="D16" s="96"/>
-      <c r="E16" s="97"/>
-      <c r="F16" s="97"/>
-      <c r="G16" s="97"/>
-      <c r="H16" s="97"/>
-      <c r="I16" s="97"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="38">
+      <c r="D16" s="85"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+      <c r="H16" s="86"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="36">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="32">
+      <c r="C17" s="30">
         <v>4</v>
       </c>
-      <c r="D17" s="43"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="39">
+      <c r="D17" s="41"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="24">
         <f xml:space="preserve"> SUM(C4:C17)</f>
         <v>80</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="11">
         <f xml:space="preserve"> C18-SUM(D4:D17)</f>
         <v>76</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="11">
         <f t="shared" ref="E18:J18" si="1" xml:space="preserve"> D18-SUM(E4:E17)</f>
         <v>76</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="I18" s="13">
+      <c r="I18" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <f t="shared" si="1"/>
         <v>76</v>
       </c>
-      <c r="K18" s="14">
+      <c r="K18" s="12">
         <f xml:space="preserve"> J18</f>
         <v>76</v>
       </c>
@@ -9026,10 +9022,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
-  <dimension ref="C4:E9"/>
+  <dimension ref="C4:G12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9037,60 +9033,69 @@
     <col min="3" max="3" width="21.21875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="43.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C5" s="74" t="s">
+    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C5" s="68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C6" s="21" t="s">
+    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="19" t="s">
         <v>39</v>
       </c>
       <c r="E6" s="3">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="21" t="s">
+    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E7" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C8" s="21" t="s">
+    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C8" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="19" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="3">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C9" s="21" t="s">
+    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="3">
         <v>16</v>
+      </c>
+      <c r="G9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/BurndownChartSAE.xlsx
+++ b/BurndownChartSAE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\simsi\Documents\ASimon\Cours\1IUT\2eme année\SAE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A97C7DF-CA05-4583-AB4E-64D4086D2F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DFA1EB0-8942-4350-91C3-5076A9ED5D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4F946979-6B2B-4F25-9020-64580F0701EC}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="90">
   <si>
     <t>Burn Down Chart Sprint 1</t>
   </si>
@@ -305,10 +305,13 @@
     <t>Présentation pour un client non informaticien</t>
   </si>
   <si>
-    <t>Faire au plus simple, avec un tableau fixe</t>
+    <t>IHM Impression</t>
   </si>
   <si>
-    <t>Rdv mardi 23 9h30</t>
+    <t>Impression</t>
+  </si>
+  <si>
+    <t>Enregistrement d'un pdf</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="42">
+  <borders count="43">
     <border>
       <left/>
       <right/>
@@ -935,11 +938,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1203,6 +1217,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1221,8 +1238,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3037,33 +3060,33 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>'Sprint 5'!$C$18:$J$18</c:f>
+              <c:f>'Sprint 5'!$C$20:$J$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>80</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7093,16 +7116,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7111,22 +7134,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7137,12 +7160,12 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -7267,16 +7290,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7285,22 +7308,22 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7311,12 +7334,12 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="90"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="56" t="s">
@@ -7583,18 +7606,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7603,28 +7626,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7635,14 +7658,14 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
@@ -7808,16 +7831,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="94"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -7826,25 +7849,25 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
@@ -7855,13 +7878,13 @@
       <c r="B3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="73" t="s">
@@ -8036,18 +8059,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="94"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8056,28 +8079,28 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8088,14 +8111,14 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="90"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="91"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -8492,7 +8515,7 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B24" s="95"/>
+      <c r="B24" s="89"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B25" s="19" t="s">
@@ -8560,10 +8583,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{934AC848-54A5-4D10-9018-1F7482541CF8}">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8576,19 +8599,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="37.200000000000003" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
-      <c r="I1" s="92"/>
-      <c r="J1" s="92"/>
-      <c r="K1" s="93"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="93"/>
+      <c r="J1" s="93"/>
+      <c r="K1" s="94"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
@@ -8597,31 +8620,31 @@
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="89" t="s">
+      <c r="G2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="89" t="s">
+      <c r="H2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="89" t="s">
+      <c r="I2" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="90" t="s">
         <v>41</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="90" t="s">
         <v>73</v>
       </c>
     </row>
@@ -8632,15 +8655,15 @@
       <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="94"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="94"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="73" t="s">
@@ -8650,7 +8673,7 @@
         <v>40</v>
       </c>
       <c r="C4" s="28">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D4" s="84"/>
       <c r="E4" s="71"/>
@@ -8658,10 +8681,12 @@
       <c r="G4" s="71"/>
       <c r="H4" s="71"/>
       <c r="I4" s="71"/>
-      <c r="J4" s="72"/>
+      <c r="J4" s="72">
+        <v>1</v>
+      </c>
       <c r="K4" s="35">
         <f>C4-SUM(D4:J4)</f>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -8678,12 +8703,16 @@
       <c r="E5" s="69"/>
       <c r="F5" s="69"/>
       <c r="G5" s="69"/>
-      <c r="H5" s="69"/>
-      <c r="I5" s="69"/>
+      <c r="H5" s="69">
+        <v>4</v>
+      </c>
+      <c r="I5" s="69">
+        <v>4</v>
+      </c>
       <c r="J5" s="70"/>
       <c r="K5" s="36">
-        <f t="shared" ref="K5:K17" si="0">C5-SUM(D5:J5)</f>
-        <v>8</v>
+        <f t="shared" ref="K5:K19" si="0">C5-SUM(D5:J5)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -8699,13 +8728,15 @@
       <c r="D6" s="83"/>
       <c r="E6" s="69"/>
       <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="69">
+        <v>1</v>
+      </c>
       <c r="H6" s="69"/>
       <c r="I6" s="69"/>
       <c r="J6" s="70"/>
       <c r="K6" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -8718,7 +8749,9 @@
       <c r="C7" s="29">
         <v>1</v>
       </c>
-      <c r="D7" s="83"/>
+      <c r="D7" s="83">
+        <v>1</v>
+      </c>
       <c r="E7" s="69"/>
       <c r="F7" s="69"/>
       <c r="G7" s="69"/>
@@ -8727,7 +8760,7 @@
       <c r="J7" s="70"/>
       <c r="K7" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -8741,15 +8774,19 @@
         <v>8</v>
       </c>
       <c r="D8" s="83"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="69">
+        <v>4</v>
+      </c>
+      <c r="F8" s="69">
+        <v>4</v>
+      </c>
       <c r="G8" s="69"/>
       <c r="H8" s="69"/>
       <c r="I8" s="69"/>
       <c r="J8" s="70"/>
       <c r="K8" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -8765,13 +8802,15 @@
       <c r="D9" s="83"/>
       <c r="E9" s="69"/>
       <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
+      <c r="G9" s="69">
+        <v>4</v>
+      </c>
       <c r="H9" s="69"/>
       <c r="I9" s="69"/>
       <c r="J9" s="70"/>
       <c r="K9" s="36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -8784,7 +8823,9 @@
       <c r="C10" s="29">
         <v>1</v>
       </c>
-      <c r="D10" s="83"/>
+      <c r="D10" s="83">
+        <v>1</v>
+      </c>
       <c r="E10" s="69"/>
       <c r="F10" s="69"/>
       <c r="G10" s="69"/>
@@ -8793,7 +8834,7 @@
       <c r="J10" s="70"/>
       <c r="K10" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -8809,15 +8850,19 @@
       <c r="D11" s="83">
         <v>2</v>
       </c>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="E11" s="69">
+        <v>4</v>
+      </c>
+      <c r="F11" s="69">
+        <v>2</v>
+      </c>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
       <c r="I11" s="69"/>
       <c r="J11" s="70"/>
       <c r="K11" s="36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
@@ -8835,13 +8880,17 @@
       </c>
       <c r="E12" s="69"/>
       <c r="F12" s="69"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="69"/>
+      <c r="G12" s="69">
+        <v>2</v>
+      </c>
+      <c r="H12" s="69">
+        <v>4</v>
+      </c>
       <c r="I12" s="69"/>
       <c r="J12" s="70"/>
       <c r="K12" s="36">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -8854,7 +8903,9 @@
       <c r="C13" s="29">
         <v>1</v>
       </c>
-      <c r="D13" s="83"/>
+      <c r="D13" s="83">
+        <v>1</v>
+      </c>
       <c r="E13" s="69"/>
       <c r="F13" s="69"/>
       <c r="G13" s="69"/>
@@ -8863,7 +8914,7 @@
       <c r="J13" s="70"/>
       <c r="K13" s="36">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -8879,13 +8930,17 @@
       <c r="D14" s="83"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
+      <c r="G14" s="69">
+        <v>4</v>
+      </c>
+      <c r="H14" s="69">
+        <v>4</v>
+      </c>
       <c r="I14" s="69"/>
       <c r="J14" s="70"/>
       <c r="K14" s="36">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -8903,11 +8958,13 @@
       <c r="F15" s="69"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
+      <c r="I15" s="69">
+        <v>4</v>
+      </c>
       <c r="J15" s="70"/>
       <c r="K15" s="36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -8926,73 +8983,127 @@
       <c r="G16" s="86"/>
       <c r="H16" s="86"/>
       <c r="I16" s="86"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="87">
+        <v>8</v>
+      </c>
       <c r="K16" s="36">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="98">
+        <v>2</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="86"/>
+      <c r="F17" s="86">
+        <v>2</v>
+      </c>
+      <c r="G17" s="86"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="86"/>
+      <c r="J17" s="87"/>
+      <c r="K17" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="96" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="98">
         <v>8</v>
       </c>
+      <c r="D18" s="85"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86">
+        <v>4</v>
+      </c>
+      <c r="G18" s="86">
+        <v>4</v>
+      </c>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="87"/>
+      <c r="K18" s="36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88" t="s">
+    <row r="19" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88" t="s">
         <v>53</v>
       </c>
-      <c r="B17" s="82" t="s">
+      <c r="B19" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C19" s="30">
         <v>4</v>
       </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="37">
+      <c r="D19" s="41"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="27">
+        <v>4</v>
+      </c>
+      <c r="K19" s="36">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="22" t="s">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="24">
-        <f xml:space="preserve"> SUM(C4:C17)</f>
-        <v>80</v>
-      </c>
-      <c r="D18" s="11">
-        <f xml:space="preserve"> C18-SUM(D4:D17)</f>
-        <v>76</v>
-      </c>
-      <c r="E18" s="11">
-        <f t="shared" ref="E18:J18" si="1" xml:space="preserve"> D18-SUM(E4:E17)</f>
-        <v>76</v>
-      </c>
-      <c r="F18" s="11">
+      <c r="C20" s="24">
+        <f xml:space="preserve"> SUM(C4:C19)</f>
+        <v>75</v>
+      </c>
+      <c r="D20" s="11">
+        <f xml:space="preserve"> C20-SUM(D4:D19)</f>
+        <v>68</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" ref="E20:J20" si="1" xml:space="preserve"> D20-SUM(E4:E19)</f>
+        <v>60</v>
+      </c>
+      <c r="F20" s="11">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="G18" s="11">
+        <v>48</v>
+      </c>
+      <c r="G20" s="11">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="H18" s="11">
+        <v>33</v>
+      </c>
+      <c r="H20" s="11">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="I18" s="11">
+        <v>21</v>
+      </c>
+      <c r="I20" s="11">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="J18" s="11">
+        <v>13</v>
+      </c>
+      <c r="J20" s="11">
         <f t="shared" si="1"/>
-        <v>76</v>
-      </c>
-      <c r="K18" s="12">
-        <f xml:space="preserve"> J18</f>
-        <v>76</v>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12">
+        <f xml:space="preserve"> J20</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -9009,7 +9120,7 @@
     <mergeCell ref="G2:G3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="K4:K17">
+  <conditionalFormatting sqref="K4:K19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -9022,10 +9133,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{321C0A62-CFF5-48C2-A546-941882F71DAA}">
-  <dimension ref="C4:G12"/>
+  <dimension ref="C4:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F14" sqref="F14:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9036,17 +9147,17 @@
     <col min="7" max="7" width="36.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:5" x14ac:dyDescent="0.3">
       <c r="D4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C5" s="68" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
@@ -9057,7 +9168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C7" s="19" t="s">
         <v>43</v>
       </c>
@@ -9068,7 +9179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C8" s="19" t="s">
         <v>43</v>
       </c>
@@ -9079,7 +9190,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:5" x14ac:dyDescent="0.3">
       <c r="C9" s="19" t="s">
         <v>78</v>
       </c>
@@ -9088,14 +9199,6 @@
       </c>
       <c r="E9" s="3">
         <v>16</v>
-      </c>
-      <c r="G9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="G12" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>
